--- a/data/limma_a_v/results_limma_pre.xlsx
+++ b/data/limma_a_v/results_limma_pre.xlsx
@@ -436,39 +436,39 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.590252171790684</v>
+        <v>1.746805028632355</v>
       </c>
       <c r="B2">
-        <v>15.46440117934716</v>
+        <v>14.53507628367529</v>
       </c>
       <c r="C2">
-        <v>3.576678051873579</v>
+        <v>9.995546569606757</v>
       </c>
       <c r="D2">
-        <v>0.003554487411620249</v>
+        <v>8.904807883376117e-14</v>
       </c>
       <c r="E2">
-        <v>0.04773168809890049</v>
+        <v>1.67410388207471e-11</v>
       </c>
       <c r="F2">
-        <v>-1.661168698948565</v>
+        <v>21.1529808336585</v>
       </c>
       <c r="G2">
-        <v>0.000127384848243098</v>
+        <v>1.59785934065049e-23</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="I2">
-        <v>0.04773168809890049</v>
+        <v>1.67410388207471e-11</v>
       </c>
       <c r="J2">
-        <v>0.00399139191161707</v>
+        <v>3.00397556042292e-21</v>
       </c>
       <c r="K2">
-        <v>2.449223019506793</v>
+        <v>13.05037544577847</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -493,54 +493,39 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.587970954344112</v>
+        <v>1.029551594605387</v>
       </c>
       <c r="B3">
-        <v>20.63551779230514</v>
+        <v>11.83100174429841</v>
       </c>
       <c r="C3">
-        <v>4.426970729793111</v>
+        <v>1.529003533631148</v>
       </c>
       <c r="D3">
-        <v>0.0007405117781659764</v>
+        <v>0.132232508571866</v>
       </c>
       <c r="E3">
-        <v>0.02016330249204084</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F3">
-        <v>-0.2278996066947219</v>
+        <v>-5.629686480772557</v>
       </c>
       <c r="G3">
-        <v>1.068827688144174e-05</v>
+        <v>0.1245582163994424</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Palmitate</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="I3">
-        <v>0.02016330249204084</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J3">
-        <v>0.0007502869722756755</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K3">
-        <v>3.130468029442826</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.8786617630214475</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -550,54 +535,39 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.569717122679062</v>
+        <v>0.8502234083081994</v>
       </c>
       <c r="B4">
-        <v>19.13856711639993</v>
+        <v>9.678101597757001</v>
       </c>
       <c r="C4">
-        <v>4.433375479664142</v>
+        <v>1.340260430515887</v>
       </c>
       <c r="D4">
-        <v>0.0007320230378551865</v>
+        <v>0.1858993126606509</v>
       </c>
       <c r="E4">
-        <v>0.02016330249204084</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="F4">
-        <v>-0.2174177114772968</v>
+        <v>-5.891710559881612</v>
       </c>
       <c r="G4">
-        <v>1.197266445120759e-05</v>
+        <v>0.239178901543347</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="I4">
-        <v>0.02016330249204084</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="J4">
-        <v>0.0007502869722756755</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K4">
-        <v>3.135475250832399</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.7307222159744078</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -607,51 +577,41 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.386826266302794</v>
+        <v>0.7271471191623835</v>
       </c>
       <c r="B5">
-        <v>22.15866695265886</v>
+        <v>13.27338317134235</v>
       </c>
       <c r="C5">
-        <v>4.419338185037153</v>
+        <v>2.651531424603066</v>
       </c>
       <c r="D5">
-        <v>0.0007507612630015207</v>
+        <v>0.0105545689937405</v>
       </c>
       <c r="E5">
-        <v>0.02016330249204084</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="F5">
-        <v>-0.2403981934053805</v>
+        <v>-3.462671106007286</v>
       </c>
       <c r="G5">
-        <v>4.64369732981843e-05</v>
+        <v>0.03653847825589642</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="I5">
-        <v>0.02016330249204084</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="J5">
-        <v>0.00174603019601173</v>
+        <v>0.8586542390135659</v>
       </c>
       <c r="K5">
-        <v>3.124498143747405</v>
+        <v>1.976559496838753</v>
       </c>
       <c r="L5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -664,54 +624,39 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.385345526318806</v>
+        <v>0.7041230220609869</v>
       </c>
       <c r="B6">
-        <v>14.4665681878448</v>
+        <v>12.59548365680427</v>
       </c>
       <c r="C6">
-        <v>5.292657290726819</v>
+        <v>2.005907758501404</v>
       </c>
       <c r="D6">
-        <v>0.0001634806434889075</v>
+        <v>0.05000135526101477</v>
       </c>
       <c r="E6">
-        <v>0.01722751767254979</v>
+        <v>0.408706729959599</v>
       </c>
       <c r="F6">
-        <v>1.133067639073968</v>
+        <v>-4.830410466252263</v>
       </c>
       <c r="G6">
-        <v>5.679924092861715e-06</v>
+        <v>0.1213174061542361</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="I6">
-        <v>0.01722751767254979</v>
+        <v>0.408706729959599</v>
       </c>
       <c r="J6">
-        <v>0.0007502869722756755</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K6">
-        <v>3.786533661496708</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>1.30101822417591</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -721,44 +666,39 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.334749515577293</v>
+        <v>0.5607590784834713</v>
       </c>
       <c r="B7">
-        <v>17.94855074123457</v>
+        <v>16.83433088827723</v>
       </c>
       <c r="C7">
-        <v>2.666170514316001</v>
+        <v>2.335565292726083</v>
       </c>
       <c r="D7">
-        <v>0.01988441380517983</v>
+        <v>0.02334556608508481</v>
       </c>
       <c r="E7">
-        <v>0.1625334693640786</v>
+        <v>0.2743104014997465</v>
       </c>
       <c r="F7">
-        <v>-3.229253313976244</v>
+        <v>-4.170492639289536</v>
       </c>
       <c r="G7">
-        <v>0.005357235943166018</v>
+        <v>0.121606225355766</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Docosapentaenoic Acid</t>
+          <t>2-Hydroxybutyrate_iso1</t>
         </is>
       </c>
       <c r="I7">
-        <v>0.1625334693640786</v>
+        <v>0.2743104014997465</v>
       </c>
       <c r="J7">
-        <v>0.06911133892332068</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K7">
-        <v>1.701487207540874</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>1.631795590799445</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -768,54 +708,39 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.214839582119957</v>
+        <v>0.5253505206130455</v>
       </c>
       <c r="B8">
-        <v>18.85349944405511</v>
+        <v>15.41229523129943</v>
       </c>
       <c r="C8">
-        <v>5.22509740003111</v>
+        <v>2.840937161831924</v>
       </c>
       <c r="D8">
-        <v>0.0001832714646015935</v>
+        <v>0.006376839409230327</v>
       </c>
       <c r="E8">
-        <v>0.01722751767254979</v>
+        <v>0.1498557261169127</v>
       </c>
       <c r="F8">
-        <v>1.031153915981053</v>
+        <v>-3.005657306689816</v>
       </c>
       <c r="G8">
-        <v>2.885756680770314e-05</v>
+        <v>0.07025032633494192</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="I8">
-        <v>0.01722751767254979</v>
+        <v>0.1498557261169127</v>
       </c>
       <c r="J8">
-        <v>0.001356305639962047</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K8">
-        <v>3.736905149499293</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>2.195394519905218</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -825,54 +750,39 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.184614776218915</v>
+        <v>0.3904079024093505</v>
       </c>
       <c r="B9">
-        <v>17.58816771397615</v>
+        <v>10.56630918347476</v>
       </c>
       <c r="C9">
-        <v>3.920235985879446</v>
+        <v>2.039164574067331</v>
       </c>
       <c r="D9">
-        <v>0.001870605991680289</v>
+        <v>0.04645262911844093</v>
       </c>
       <c r="E9">
-        <v>0.03197035694871767</v>
+        <v>0.3969588306484952</v>
       </c>
       <c r="F9">
-        <v>-1.073419273908494</v>
+        <v>-4.767667858128203</v>
       </c>
       <c r="G9">
-        <v>0.0005866106559144449</v>
+        <v>0.3017104044007963</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="I9">
-        <v>0.03197035694871767</v>
+        <v>0.3969588306484952</v>
       </c>
       <c r="J9">
-        <v>0.01575468618741652</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K9">
-        <v>2.728017678913123</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>1.332989700845398</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -882,44 +792,39 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.147120277224548</v>
+        <v>0.3366665664880593</v>
       </c>
       <c r="B10">
-        <v>18.97459022532774</v>
+        <v>17.06844614629551</v>
       </c>
       <c r="C10">
-        <v>3.234931963019646</v>
+        <v>1.117519235769586</v>
       </c>
       <c r="D10">
-        <v>0.006778672297180629</v>
+        <v>0.2688312688799164</v>
       </c>
       <c r="E10">
-        <v>0.07496414069823285</v>
+        <v>0.8566148906682083</v>
       </c>
       <c r="F10">
-        <v>-2.251867513035761</v>
+        <v>-6.159276645765829</v>
       </c>
       <c r="G10">
-        <v>0.003251337381659545</v>
+        <v>0.6425766159526858</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="I10">
-        <v>0.07496414069823285</v>
+        <v>0.8566148906682083</v>
       </c>
       <c r="J10">
-        <v>0.05556831161381767</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K10">
-        <v>2.168855360775053</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.5705202180876877</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -929,44 +834,39 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.107331528935049</v>
+        <v>0.3171676602489413</v>
       </c>
       <c r="B11">
-        <v>21.47422173021105</v>
+        <v>11.29478329213387</v>
       </c>
       <c r="C11">
-        <v>2.982430426320365</v>
+        <v>0.6685276569659077</v>
       </c>
       <c r="D11">
-        <v>0.01094058892421166</v>
+        <v>0.5067089367714933</v>
       </c>
       <c r="E11">
-        <v>0.1142683732084329</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F11">
-        <v>-2.688326532962801</v>
+        <v>-6.556212755085905</v>
       </c>
       <c r="G11">
-        <v>0.00673857304776871</v>
+        <v>0.8060443990038376</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>Indoleacetaldehyde_iso1</t>
         </is>
       </c>
       <c r="I11">
-        <v>0.1142683732084329</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J11">
-        <v>0.07917823331128235</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K11">
-        <v>1.960959299606666</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.2952414360363088</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -976,44 +876,39 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.09500330155392</v>
+        <v>0.3161493686676984</v>
       </c>
       <c r="B12">
-        <v>18.15367198640197</v>
+        <v>13.50207035144828</v>
       </c>
       <c r="C12">
-        <v>2.763249934129281</v>
+        <v>1.873760126024954</v>
       </c>
       <c r="D12">
-        <v>0.01656160695598737</v>
+        <v>0.06650180645557975</v>
       </c>
       <c r="E12">
-        <v>0.1482658146536013</v>
+        <v>0.4808592159095766</v>
       </c>
       <c r="F12">
-        <v>-3.064297692473988</v>
+        <v>-5.070914991208515</v>
       </c>
       <c r="G12">
-        <v>0.01121789392129983</v>
+        <v>0.424462703707648</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="I12">
-        <v>0.1482658146536012</v>
+        <v>0.4808592159095767</v>
       </c>
       <c r="J12">
-        <v>0.1109981082739141</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K12">
-        <v>1.780897526351924</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>1.177166557358031</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1023,54 +918,39 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.071285786536084</v>
+        <v>0.2778759745944352</v>
       </c>
       <c r="B13">
-        <v>15.55415373805512</v>
+        <v>13.99813918145135</v>
       </c>
       <c r="C13">
-        <v>3.939390623724043</v>
+        <v>1.064724780255448</v>
       </c>
       <c r="D13">
-        <v>0.001805354267404438</v>
+        <v>0.2918451377637533</v>
       </c>
       <c r="E13">
-        <v>0.03197035694871767</v>
+        <v>0.9026100730024907</v>
       </c>
       <c r="F13">
-        <v>-1.040938203636924</v>
+        <v>-6.215935388405229</v>
       </c>
       <c r="G13">
-        <v>0.001150785370862724</v>
+        <v>0.7101968131646103</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="I13">
-        <v>0.03197035694871767</v>
+        <v>0.9026100730024907</v>
       </c>
       <c r="J13">
-        <v>0.02704345621527402</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K13">
-        <v>2.743437563131097</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.5348475377828495</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1080,44 +960,39 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.9976062290501613</v>
+        <v>0.2513557354337035</v>
       </c>
       <c r="B14">
-        <v>16.40246428655323</v>
+        <v>9.796135805118395</v>
       </c>
       <c r="C14">
-        <v>2.445453549899232</v>
+        <v>0.7890410381746502</v>
       </c>
       <c r="D14">
-        <v>0.03004166067656719</v>
+        <v>0.433616624713306</v>
       </c>
       <c r="E14">
-        <v>0.217224315661332</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F14">
-        <v>-3.598956681658253</v>
+        <v>-6.468750477048703</v>
       </c>
       <c r="G14">
-        <v>0.03029478792597559</v>
+        <v>0.8105587395775881</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="I14">
-        <v>0.217224315661332</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J14">
-        <v>0.2588827331856096</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K14">
-        <v>1.522276063587486</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.3628940754483511</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1127,39 +1002,39 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.9899751266212</v>
+        <v>0.2316944492447384</v>
       </c>
       <c r="B15">
-        <v>17.6871551731718</v>
+        <v>13.09853796003618</v>
       </c>
       <c r="C15">
-        <v>1.28928155185138</v>
+        <v>1.765455425068889</v>
       </c>
       <c r="D15">
-        <v>0.2205354801095047</v>
+        <v>0.0832691303852454</v>
       </c>
       <c r="E15">
-        <v>0.6184812554154658</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="F15">
-        <v>-5.27732937933875</v>
+        <v>-5.25732328671787</v>
       </c>
       <c r="G15">
-        <v>0.2239030526204761</v>
+        <v>0.5621887383828432</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="I15">
-        <v>0.6184812554154658</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="J15">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K15">
-        <v>0.6565215305670679</v>
+        <v>1.079515970839017</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1169,44 +1044,39 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.9859363624018656</v>
+        <v>0.2119417440778264</v>
       </c>
       <c r="B16">
-        <v>12.82390988221475</v>
+        <v>14.62034543821754</v>
       </c>
       <c r="C16">
-        <v>2.724307997000917</v>
+        <v>0.9817748718609582</v>
       </c>
       <c r="D16">
-        <v>0.01782338375712827</v>
+        <v>0.3306878658307736</v>
       </c>
       <c r="E16">
-        <v>0.1523089157427325</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F16">
-        <v>-3.1306088081509</v>
+        <v>-6.299643097825109</v>
       </c>
       <c r="G16">
-        <v>0.01886199383674491</v>
+        <v>0.790942054601409</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="I16">
-        <v>0.1523089157427325</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J16">
-        <v>0.1773027420654021</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K16">
-        <v>1.749009841963351</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.4805817406757156</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1216,49 +1086,39 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.9853628872288525</v>
+        <v>0.2056530467947244</v>
       </c>
       <c r="B17">
-        <v>13.66761763394682</v>
+        <v>15.77990728960331</v>
       </c>
       <c r="C17">
-        <v>3.709148310302193</v>
+        <v>1.558519915750758</v>
       </c>
       <c r="D17">
-        <v>0.002772163295310197</v>
+        <v>0.1250839900252676</v>
       </c>
       <c r="E17">
-        <v>0.0400993573088763</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F17">
-        <v>-1.433510186420882</v>
+        <v>-5.5858495639437</v>
       </c>
       <c r="G17">
-        <v>0.003021680614889175</v>
+        <v>0.6521339113459961</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="I17">
-        <v>0.0400993573088763</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J17">
-        <v>0.05556831161381767</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K17">
-        <v>2.557181191028714</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.9027982737489136</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1268,39 +1128,39 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.9832167685853364</v>
+        <v>0.1802343464427043</v>
       </c>
       <c r="B18">
-        <v>10.92543199414036</v>
+        <v>13.00915617678346</v>
       </c>
       <c r="C18">
-        <v>1.341460559638325</v>
+        <v>1.788138076043122</v>
       </c>
       <c r="D18">
-        <v>0.2035204271161187</v>
+        <v>0.07949198481339802</v>
       </c>
       <c r="E18">
-        <v>0.6073307983782589</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="F18">
-        <v>-5.21602847956625</v>
+        <v>-5.219093558401434</v>
       </c>
       <c r="G18">
-        <v>0.2090315289726147</v>
+        <v>0.6335785943403665</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="I18">
-        <v>0.6073307983782589</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="J18">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K18">
-        <v>0.691391994602932</v>
+        <v>1.09967665910201</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1310,39 +1170,39 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.980455277674892</v>
+        <v>0.1662169322070923</v>
       </c>
       <c r="B19">
-        <v>17.58640457938161</v>
+        <v>19.16365722600884</v>
       </c>
       <c r="C19">
-        <v>1.249235831074888</v>
+        <v>1.674180318114628</v>
       </c>
       <c r="D19">
-        <v>0.2343563272151618</v>
+        <v>0.100009211305425</v>
       </c>
       <c r="E19">
-        <v>0.6191426014058483</v>
+        <v>0.5529921095711735</v>
       </c>
       <c r="F19">
-        <v>-5.323131541034967</v>
+        <v>-5.406760852523893</v>
       </c>
       <c r="G19">
-        <v>0.2410972565000566</v>
+        <v>0.6820083892514842</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="I19">
-        <v>0.6191426014058483</v>
+        <v>0.5529921095711735</v>
       </c>
       <c r="J19">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K19">
-        <v>0.6301233167862446</v>
+        <v>0.9999599976511689</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1352,44 +1212,39 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.9549004343942098</v>
+        <v>0.1659267110248344</v>
       </c>
       <c r="B20">
-        <v>15.97407810785932</v>
+        <v>12.74476793885804</v>
       </c>
       <c r="C20">
-        <v>3.473957103221852</v>
+        <v>1.012415956295918</v>
       </c>
       <c r="D20">
-        <v>0.004313341546917584</v>
+        <v>0.3159559985571485</v>
       </c>
       <c r="E20">
-        <v>0.05068176317628161</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F20">
-        <v>-1.83835452967249</v>
+        <v>-6.269481635704361</v>
       </c>
       <c r="G20">
-        <v>0.005514202573669203</v>
+        <v>0.8259898075341842</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="I20">
-        <v>0.05068176317628161</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J20">
-        <v>0.06911133892332068</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K20">
-        <v>2.365186151390632</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.5003733949588348</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1399,44 +1254,39 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.8644174507084994</v>
+        <v>0.1651930211978225</v>
       </c>
       <c r="B21">
-        <v>13.82487410095895</v>
+        <v>12.07131957031308</v>
       </c>
       <c r="C21">
-        <v>2.936368935250247</v>
+        <v>0.7332103037461426</v>
       </c>
       <c r="D21">
-        <v>0.01193826383565805</v>
+        <v>0.4666729484844188</v>
       </c>
       <c r="E21">
-        <v>0.1181259790054586</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F21">
-        <v>-2.767653446066783</v>
+        <v>-6.511031180264396</v>
       </c>
       <c r="G21">
-        <v>0.02176077661998815</v>
+        <v>0.8817047812694838</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Adipate_iso1</t>
         </is>
       </c>
       <c r="I21">
-        <v>0.1181259790054586</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J21">
-        <v>0.1948107621217987</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K21">
-        <v>1.923058827429243</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.3309873730262295</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1446,39 +1296,39 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.8599331447665417</v>
+        <v>0.1580968069934361</v>
       </c>
       <c r="B22">
-        <v>13.04167324872152</v>
+        <v>12.4859893870089</v>
       </c>
       <c r="C22">
-        <v>1.78547627507256</v>
+        <v>1.003666609090806</v>
       </c>
       <c r="D22">
-        <v>0.09833293465930919</v>
+        <v>0.3201166695879298</v>
       </c>
       <c r="E22">
-        <v>0.4182437766071447</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F22">
-        <v>-4.628818655583727</v>
+        <v>-6.27818501283711</v>
       </c>
       <c r="G22">
-        <v>0.136078177388107</v>
+        <v>0.8352006433563127</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="I22">
-        <v>0.4182437766071447</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J22">
-        <v>0.9073022141073124</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K22">
-        <v>1.007300999510446</v>
+        <v>0.4946917100434434</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1488,49 +1338,39 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.8509485674403017</v>
+        <v>0.1388945732677236</v>
       </c>
       <c r="B23">
-        <v>19.32700724356828</v>
+        <v>12.06830328398394</v>
       </c>
       <c r="C23">
-        <v>3.524108574579222</v>
+        <v>0.4881889217456233</v>
       </c>
       <c r="D23">
-        <v>0.003924215915409953</v>
+        <v>0.6274372180309373</v>
       </c>
       <c r="E23">
-        <v>0.04918350613980474</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F23">
-        <v>-1.751787518750438</v>
+        <v>-6.66045885136797</v>
       </c>
       <c r="G23">
-        <v>0.008962052277801169</v>
+        <v>0.9373107758000603</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="I23">
-        <v>0.04918350613980474</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J23">
-        <v>0.0936036571237011</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K23">
-        <v>2.406247105193374</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.2024297235948216</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1540,54 +1380,39 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.8370237041337969</v>
+        <v>0.1368597846929998</v>
       </c>
       <c r="B24">
-        <v>13.61530835516878</v>
+        <v>15.08292758975465</v>
       </c>
       <c r="C24">
-        <v>4.703614929748828</v>
+        <v>0.7897909368208748</v>
       </c>
       <c r="D24">
-        <v>0.0004521129768420855</v>
+        <v>0.433182304693121</v>
       </c>
       <c r="E24">
-        <v>0.02016330249204084</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F24">
-        <v>0.2195561603802103</v>
+        <v>-6.468161950547579</v>
       </c>
       <c r="G24">
-        <v>0.001586216384813588</v>
+        <v>0.8918151201654833</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="I24">
-        <v>0.02016330249204084</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J24">
-        <v>0.03313429781610607</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K24">
-        <v>3.344753027382807</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.3633292924232059</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1597,49 +1422,39 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.8191920939613748</v>
+        <v>0.1228288762697005</v>
       </c>
       <c r="B25">
-        <v>16.39036029448738</v>
+        <v>10.38183526063048</v>
       </c>
       <c r="C25">
-        <v>4.074626210576398</v>
+        <v>0.360110533978472</v>
       </c>
       <c r="D25">
-        <v>0.001406453814419735</v>
+        <v>0.7202009018848901</v>
       </c>
       <c r="E25">
-        <v>0.02937925745676779</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F25">
-        <v>-0.812670404083379</v>
+        <v>-6.714919539602995</v>
       </c>
       <c r="G25">
-        <v>0.00461070075405371</v>
+        <v>0.9604863413900037</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="I25">
-        <v>0.02937925745676779</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J25">
-        <v>0.0666778262893921</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K25">
-        <v>2.851874524765746</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.1425463391111014</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1649,39 +1464,39 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.8080778215482098</v>
+        <v>0.1226620948497246</v>
       </c>
       <c r="B26">
-        <v>12.74658932994591</v>
+        <v>11.71018471353727</v>
       </c>
       <c r="C26">
-        <v>2.072130726691793</v>
+        <v>0.5759737569935018</v>
       </c>
       <c r="D26">
-        <v>0.05943810263790463</v>
+        <v>0.5670798006467451</v>
       </c>
       <c r="E26">
-        <v>0.3192675227407448</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F26">
-        <v>-4.199254977904097</v>
+        <v>-6.613723258026726</v>
       </c>
       <c r="G26">
-        <v>0.1021760396521955</v>
+        <v>0.9327848392605899</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="I26">
-        <v>0.3192675227407449</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J26">
-        <v>0.7683638181845103</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K26">
-        <v>1.225935062421101</v>
+        <v>0.2463558219855446</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1691,39 +1506,39 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.7509977358008975</v>
+        <v>0.1221015945638619</v>
       </c>
       <c r="B27">
-        <v>16.88470559382748</v>
+        <v>20.69662000476291</v>
       </c>
       <c r="C27">
-        <v>2.495254177101713</v>
+        <v>0.9506231549770384</v>
       </c>
       <c r="D27">
-        <v>0.02738332128767947</v>
+        <v>0.3461267288192209</v>
       </c>
       <c r="E27">
-        <v>0.2059225760833496</v>
+        <v>0.9509380499118817</v>
       </c>
       <c r="F27">
-        <v>-3.516301667529892</v>
+        <v>-6.329390998055577</v>
       </c>
       <c r="G27">
-        <v>0.06707421760138796</v>
+        <v>0.8784961764598729</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="I27">
-        <v>0.2059225760833497</v>
+        <v>0.9509380499118816</v>
       </c>
       <c r="J27">
-        <v>0.5254147045442057</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K27">
-        <v>1.562513877990414</v>
+        <v>0.4607648620451477</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1733,49 +1548,39 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.7470797979926651</v>
+        <v>0.1131572760271684</v>
       </c>
       <c r="B28">
-        <v>14.93228314636334</v>
+        <v>14.99963886410389</v>
       </c>
       <c r="C28">
-        <v>4.458988248988957</v>
+        <v>0.5223515426293152</v>
       </c>
       <c r="D28">
-        <v>0.0006990722800816669</v>
+        <v>0.6036102649849162</v>
       </c>
       <c r="E28">
-        <v>0.02016330249204084</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F28">
-        <v>-0.1755565654065308</v>
+        <v>-6.64317784396125</v>
       </c>
       <c r="G28">
-        <v>0.004391432323143931</v>
+        <v>0.9444761943978175</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="I28">
-        <v>0.02016330249204084</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J28">
-        <v>0.0666778262893921</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K28">
-        <v>3.155477918363408</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.2192433832297825</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1785,49 +1590,39 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.7196763643243447</v>
+        <v>0.1096712950967813</v>
       </c>
       <c r="B29">
-        <v>15.50908510540102</v>
+        <v>15.42883403410799</v>
       </c>
       <c r="C29">
-        <v>4.173334826998107</v>
+        <v>1.16411844559016</v>
       </c>
       <c r="D29">
-        <v>0.0011734947888562</v>
+        <v>0.2496089742152511</v>
       </c>
       <c r="E29">
-        <v>0.02757712753812069</v>
+        <v>0.8240825170286347</v>
       </c>
       <c r="F29">
-        <v>-0.6473158953023237</v>
+        <v>-6.107097257688453</v>
       </c>
       <c r="G29">
-        <v>0.007779915132651587</v>
+        <v>0.8588093124484708</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="I29">
-        <v>0.02757712753812069</v>
+        <v>0.8240825170286347</v>
       </c>
       <c r="J29">
-        <v>0.08603670852579402</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K29">
-        <v>2.930518834634645</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.6027398044779976</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1837,39 +1632,39 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.6392130512867364</v>
+        <v>0.103964069542922</v>
       </c>
       <c r="B30">
-        <v>11.69437357147581</v>
+        <v>16.50111393170148</v>
       </c>
       <c r="C30">
-        <v>2.150455399891745</v>
+        <v>0.6113893394348651</v>
       </c>
       <c r="D30">
-        <v>0.05161938133601179</v>
+        <v>0.5435651582523848</v>
       </c>
       <c r="E30">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F30">
-        <v>-4.076604329000717</v>
+        <v>-6.592712714571912</v>
       </c>
       <c r="G30">
-        <v>0.150387984592821</v>
+        <v>0.9385894754793598</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="I30">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J30">
-        <v>0.9424313701150117</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K30">
-        <v>1.287187204828305</v>
+        <v>0.2647483887012707</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -1879,39 +1674,39 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.612194574915506</v>
+        <v>0.09545492238304831</v>
       </c>
       <c r="B31">
-        <v>13.21440236558399</v>
+        <v>12.85707135366317</v>
       </c>
       <c r="C31">
-        <v>1.39535727412909</v>
+        <v>0.6673022693251018</v>
       </c>
       <c r="D31">
-        <v>0.1870871593464384</v>
+        <v>0.5074849442600272</v>
       </c>
       <c r="E31">
-        <v>0.5876018355025227</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F31">
-        <v>-5.150844304474174</v>
+        <v>-6.557029172678997</v>
       </c>
       <c r="G31">
-        <v>0.3583845462184154</v>
+        <v>0.9373055548363269</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="I31">
-        <v>0.5876018355025227</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J31">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K31">
-        <v>0.7279560191079869</v>
+        <v>0.2945768375956008</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -1921,39 +1716,39 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.5908800784602199</v>
+        <v>0.09184809246293391</v>
       </c>
       <c r="B32">
-        <v>14.20074660811801</v>
+        <v>11.62989340194799</v>
       </c>
       <c r="C32">
-        <v>2.349710240584578</v>
+        <v>0.6002795546228387</v>
       </c>
       <c r="D32">
-        <v>0.03586616418168707</v>
+        <v>0.5508876537455214</v>
       </c>
       <c r="E32">
-        <v>0.2408156737913275</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F32">
-        <v>-3.756382386947</v>
+        <v>-6.59943676053235</v>
       </c>
       <c r="G32">
-        <v>0.1399561926016599</v>
+        <v>0.9467103695743794</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3-Hydroxybenzoate</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="I32">
-        <v>0.2408156737913275</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J32">
-        <v>0.9073022141073124</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K32">
-        <v>1.445315067812597</v>
+        <v>0.2589369607366372</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -1963,39 +1758,39 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.5716254045678895</v>
+        <v>0.09081558871802287</v>
       </c>
       <c r="B33">
-        <v>12.47042031565085</v>
+        <v>13.04724677576258</v>
       </c>
       <c r="C33">
-        <v>1.485034958532607</v>
+        <v>0.4077845380046589</v>
       </c>
       <c r="D33">
-        <v>0.1621924089595972</v>
+        <v>0.6850805670268738</v>
       </c>
       <c r="E33">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F33">
-        <v>-5.038369819179568</v>
+        <v>-6.696556670780632</v>
       </c>
       <c r="G33">
-        <v>0.3535357842048066</v>
+        <v>0.9662350360244488</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="I33">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J33">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K33">
-        <v>0.7899694757975256</v>
+        <v>0.1642583514890734</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2005,39 +1800,39 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.5674635087524393</v>
+        <v>0.08385702080866153</v>
       </c>
       <c r="B34">
-        <v>18.22374873015928</v>
+        <v>13.83983391891044</v>
       </c>
       <c r="C34">
-        <v>2.233153729801362</v>
+        <v>0.6116712699174428</v>
       </c>
       <c r="D34">
-        <v>0.04441765876849008</v>
+        <v>0.5433799870787259</v>
       </c>
       <c r="E34">
-        <v>0.2789701077392164</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F34">
-        <v>-3.945034354500939</v>
+        <v>-6.592540498380538</v>
       </c>
       <c r="G34">
-        <v>0.1708193997121081</v>
+        <v>0.9501377651613757</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="I34">
-        <v>0.2789701077392164</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J34">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K34">
-        <v>1.352444336618752</v>
+        <v>0.2648963608782495</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2047,39 +1842,39 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.5331902209924575</v>
+        <v>0.08164535661639682</v>
       </c>
       <c r="B35">
-        <v>15.36808937908046</v>
+        <v>14.53808553534385</v>
       </c>
       <c r="C35">
-        <v>2.588442969028044</v>
+        <v>0.5895204049614237</v>
       </c>
       <c r="D35">
-        <v>0.02300727703756825</v>
+        <v>0.5580263150701326</v>
       </c>
       <c r="E35">
-        <v>0.180223670127618</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F35">
-        <v>-3.360389056559068</v>
+        <v>-6.605832659586469</v>
       </c>
       <c r="G35">
-        <v>0.1338327973789656</v>
+        <v>0.9534886571338481</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="I35">
-        <v>0.180223670127618</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J35">
-        <v>0.9073022141073124</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K35">
-        <v>1.638134778008259</v>
+        <v>0.2533453203809225</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2089,39 +1884,39 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.5329564984566879</v>
+        <v>0.07539000151589548</v>
       </c>
       <c r="B36">
-        <v>18.40482048238106</v>
+        <v>15.64784894798307</v>
       </c>
       <c r="C36">
-        <v>1.429428380558708</v>
+        <v>0.226788395365659</v>
       </c>
       <c r="D36">
-        <v>0.177277114487134</v>
+        <v>0.8214639919636318</v>
       </c>
       <c r="E36">
-        <v>0.5746223710962274</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F36">
-        <v>-5.108690701888387</v>
+        <v>-6.754211157347166</v>
       </c>
       <c r="G36">
-        <v>0.3977082134400904</v>
+        <v>0.9852826362782888</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="I36">
-        <v>0.5746223710962275</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J36">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K36">
-        <v>0.751347325839942</v>
+        <v>0.08541146866742677</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2131,49 +1926,39 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.5276690468352907</v>
+        <v>0.07223707637680654</v>
       </c>
       <c r="B37">
-        <v>13.91144686504961</v>
+        <v>14.67426757483519</v>
       </c>
       <c r="C37">
-        <v>3.709020253356275</v>
+        <v>0.8093793840998444</v>
       </c>
       <c r="D37">
-        <v>0.002772827899018042</v>
+        <v>0.4219292115775805</v>
       </c>
       <c r="E37">
-        <v>0.0400993573088763</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F37">
-        <v>-1.433729709785246</v>
+        <v>-6.452595539812433</v>
       </c>
       <c r="G37">
-        <v>0.04474140025383166</v>
+        <v>0.9395684042779944</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="I37">
-        <v>0.0400993573088763</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J37">
-        <v>0.3657123151182762</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K37">
-        <v>2.557077084921333</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>0.3747604059104187</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2183,39 +1968,39 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.5222297081835965</v>
+        <v>0.07173189848397143</v>
       </c>
       <c r="B38">
-        <v>13.16017031571986</v>
+        <v>13.0580279125033</v>
       </c>
       <c r="C38">
-        <v>1.870340488536277</v>
+        <v>0.5138415073336471</v>
       </c>
       <c r="D38">
-        <v>0.08491377209456005</v>
+        <v>0.6095064822517189</v>
       </c>
       <c r="E38">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F38">
-        <v>-4.505130261883147</v>
+        <v>-6.64759080066368</v>
       </c>
       <c r="G38">
-        <v>0.2758548114865513</v>
+        <v>0.9651083815765255</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="I38">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J38">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K38">
-        <v>1.071021866179993</v>
+        <v>0.215021671192143</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2225,39 +2010,39 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.5164306610630458</v>
+        <v>0.06569018852187014</v>
       </c>
       <c r="B39">
-        <v>13.10806996579714</v>
+        <v>14.55992539833326</v>
       </c>
       <c r="C39">
-        <v>2.111962686074517</v>
+        <v>0.2970079496182685</v>
       </c>
       <c r="D39">
-        <v>0.05533324824182589</v>
+        <v>0.7676256880380576</v>
       </c>
       <c r="E39">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F39">
-        <v>-4.13713118921569</v>
+        <v>-6.735734338028039</v>
       </c>
       <c r="G39">
-        <v>0.224305289168734</v>
+        <v>0.9827780519865459</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>Stearoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="I39">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J39">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K39">
-        <v>1.257013834537449</v>
+        <v>0.1148505003428836</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2267,39 +2052,39 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.5092881591645337</v>
+        <v>0.05878617379310036</v>
       </c>
       <c r="B40">
-        <v>17.44618873513166</v>
+        <v>11.84660072923782</v>
       </c>
       <c r="C40">
-        <v>2.016709311625877</v>
+        <v>0.2474725013941702</v>
       </c>
       <c r="D40">
-        <v>0.0656219121904716</v>
+        <v>0.8055023208360748</v>
       </c>
       <c r="E40">
-        <v>0.3426922081057961</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F40">
-        <v>-4.284786127296954</v>
+        <v>-6.749281997267586</v>
       </c>
       <c r="G40">
-        <v>0.2497681185505639</v>
+        <v>0.9873656775286035</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="I40">
-        <v>0.3426922081057961</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J40">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K40">
-        <v>1.182951118636491</v>
+        <v>0.09393320394141288</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2309,39 +2094,39 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.5016119272197379</v>
+        <v>0.05836387816100874</v>
       </c>
       <c r="B41">
-        <v>16.13278240997106</v>
+        <v>11.68815838915784</v>
       </c>
       <c r="C41">
-        <v>2.890674787927275</v>
+        <v>0.3800073587059981</v>
       </c>
       <c r="D41">
-        <v>0.01301711750706652</v>
+        <v>0.7054641867716005</v>
       </c>
       <c r="E41">
-        <v>0.1223609045664253</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F41">
-        <v>-2.846203927040554</v>
+        <v>-6.707531442905307</v>
       </c>
       <c r="G41">
-        <v>0.1132969315130689</v>
+        <v>0.9798428134757878</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="I41">
-        <v>0.1223609045664253</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J41">
-        <v>0.8192239663252673</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K41">
-        <v>1.885485174705536</v>
+        <v>0.1515250285180763</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2351,39 +2136,39 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.4992307640468017</v>
+        <v>0.05588919027830741</v>
       </c>
       <c r="B42">
-        <v>12.31428174892033</v>
+        <v>13.6989713812823</v>
       </c>
       <c r="C42">
-        <v>2.128216243977369</v>
+        <v>0.2823636683711611</v>
       </c>
       <c r="D42">
-        <v>0.05373556017461472</v>
+        <v>0.778768519929052</v>
       </c>
       <c r="E42">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F42">
-        <v>-4.111631380471864</v>
+        <v>-6.739995364904157</v>
       </c>
       <c r="G42">
-        <v>0.2323312444101741</v>
+        <v>0.9861225787159434</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="I42">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J42">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K42">
-        <v>1.269738219393738</v>
+        <v>0.1085916122334416</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2393,39 +2178,39 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.4940094250169622</v>
+        <v>0.0544348148447078</v>
       </c>
       <c r="B43">
-        <v>15.58409942844435</v>
+        <v>14.68512964259393</v>
       </c>
       <c r="C43">
-        <v>0.9334257487778131</v>
+        <v>0.2199427621959851</v>
       </c>
       <c r="D43">
-        <v>0.3681960153299416</v>
+        <v>0.8267638337374168</v>
       </c>
       <c r="E43">
-        <v>0.7606686910113081</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F43">
-        <v>-5.643207937123343</v>
+        <v>-6.755748010060504</v>
       </c>
       <c r="G43">
-        <v>0.6104343695161729</v>
+        <v>0.9896979612699561</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="I43">
-        <v>0.760668691011308</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J43">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K43">
-        <v>0.4339209158037111</v>
+        <v>0.08261852956749749</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2435,39 +2220,39 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.4590128135718619</v>
+        <v>0.05180526447771783</v>
       </c>
       <c r="B44">
-        <v>11.48287658763747</v>
+        <v>13.61438365905634</v>
       </c>
       <c r="C44">
-        <v>1.621275307973673</v>
+        <v>0.410207906528996</v>
       </c>
       <c r="D44">
-        <v>0.1297760563120839</v>
+        <v>0.6833131051944381</v>
       </c>
       <c r="E44">
-        <v>0.4979162976871792</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F44">
-        <v>-4.858529775900653</v>
+        <v>-6.695562718521309</v>
       </c>
       <c r="G44">
-        <v>0.3916922201713273</v>
+        <v>0.9804657614784453</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>2,6-Dihydroxypyridine</t>
         </is>
       </c>
       <c r="I44">
-        <v>0.4979162976871793</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J44">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K44">
-        <v>0.8868054274952143</v>
+        <v>0.1653802499065388</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2477,39 +2262,39 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.455823127076652</v>
+        <v>0.05126948472858217</v>
       </c>
       <c r="B45">
-        <v>13.73880812843255</v>
+        <v>16.14733215559707</v>
       </c>
       <c r="C45">
-        <v>1.296466332042969</v>
+        <v>0.2573004099974053</v>
       </c>
       <c r="D45">
-        <v>0.2181265397879955</v>
+        <v>0.797946912227207</v>
       </c>
       <c r="E45">
-        <v>0.6184812554154658</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F45">
-        <v>-5.268996369275879</v>
+        <v>-6.746789615552259</v>
       </c>
       <c r="G45">
-        <v>0.4995374414755174</v>
+        <v>0.9884945004063836</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="I45">
-        <v>0.6184812554154658</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J45">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K45">
-        <v>0.6612914899359681</v>
+        <v>0.09802600149854065</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2519,39 +2304,39 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.4278757697919602</v>
+        <v>0.05076043996567314</v>
       </c>
       <c r="B46">
-        <v>14.83247201097621</v>
+        <v>13.37907490675523</v>
       </c>
       <c r="C46">
-        <v>0.4165571385462688</v>
+        <v>0.1256718171612888</v>
       </c>
       <c r="D46">
-        <v>0.6840321285315324</v>
+        <v>0.9004689824560673</v>
       </c>
       <c r="E46">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F46">
-        <v>-5.985372884572194</v>
+        <v>-6.772127131888256</v>
       </c>
       <c r="G46">
-        <v>0.8500279983151215</v>
+        <v>0.9946924329922564</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="I46">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J46">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K46">
-        <v>0.1649234992794981</v>
+        <v>0.04553124228939635</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2561,39 +2346,39 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.4258630571826068</v>
+        <v>0.04427251647133801</v>
       </c>
       <c r="B47">
-        <v>15.39619485618131</v>
+        <v>20.86274886767875</v>
       </c>
       <c r="C47">
-        <v>1.775021598359423</v>
+        <v>0.3808371586626786</v>
       </c>
       <c r="D47">
-        <v>0.1001115422729868</v>
+        <v>0.7048520051637228</v>
       </c>
       <c r="E47">
-        <v>0.4182437766071447</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F47">
-        <v>-4.643832953849175</v>
+        <v>-6.707214738993351</v>
       </c>
       <c r="G47">
-        <v>0.3752693761403745</v>
+        <v>0.9846341935823765</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="I47">
-        <v>0.4182437766071447</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J47">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K47">
-        <v>0.9995158480303157</v>
+        <v>0.1519020604382124</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2603,39 +2388,39 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.4052930020543997</v>
+        <v>0.04348797432851192</v>
       </c>
       <c r="B48">
-        <v>11.87245002574169</v>
+        <v>15.12128247450555</v>
       </c>
       <c r="C48">
-        <v>1.44473138025323</v>
+        <v>0.5127124027627498</v>
       </c>
       <c r="D48">
-        <v>0.1730128229947484</v>
+        <v>0.6102907629732702</v>
       </c>
       <c r="E48">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F48">
-        <v>-5.089524443075309</v>
+        <v>-6.64817091673748</v>
       </c>
       <c r="G48">
-        <v>0.4911322624062006</v>
+        <v>0.9787537290338758</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
         </is>
       </c>
       <c r="I48">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J48">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K48">
-        <v>0.7619217075678425</v>
+        <v>0.2144632032370763</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2645,39 +2430,39 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.3827010753041975</v>
+        <v>0.04275614592257959</v>
       </c>
       <c r="B49">
-        <v>12.54266989594585</v>
+        <v>12.52154300766992</v>
       </c>
       <c r="C49">
-        <v>2.109792898585197</v>
+        <v>0.3261119245593572</v>
       </c>
       <c r="D49">
-        <v>0.05554986196168304</v>
+        <v>0.745628636944816</v>
       </c>
       <c r="E49">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F49">
-        <v>-4.14052883431506</v>
+        <v>-6.726628870639873</v>
       </c>
       <c r="G49">
-        <v>0.3308177687528159</v>
+        <v>0.987528314942651</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="I49">
-        <v>0.3071580602587179</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J49">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K49">
-        <v>1.255317015919402</v>
+        <v>0.1274774206268739</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -2687,39 +2472,39 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.3803015903007676</v>
+        <v>0.04070923691636708</v>
       </c>
       <c r="B50">
-        <v>12.63892626861547</v>
+        <v>17.9042859918639</v>
       </c>
       <c r="C50">
-        <v>1.647473746643812</v>
+        <v>0.2163860299230415</v>
       </c>
       <c r="D50">
-        <v>0.1242321560568003</v>
+        <v>0.8295206555853812</v>
       </c>
       <c r="E50">
-        <v>0.4865759445558011</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F50">
-        <v>-4.822786372903341</v>
+        <v>-6.756527941826426</v>
       </c>
       <c r="G50">
-        <v>0.4524137109886454</v>
+        <v>0.9924200217660354</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="I50">
-        <v>0.4865759445558011</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J50">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K50">
-        <v>0.9057659775047915</v>
+        <v>0.08117279529957981</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -2729,39 +2514,39 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.3783083244265555</v>
+        <v>0.03985999908015891</v>
       </c>
       <c r="B51">
-        <v>16.01092327398902</v>
+        <v>12.96059888772429</v>
       </c>
       <c r="C51">
-        <v>0.6858118353819551</v>
+        <v>0.1501040551805764</v>
       </c>
       <c r="D51">
-        <v>0.5052927925425443</v>
+        <v>0.8812544239682183</v>
       </c>
       <c r="E51">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F51">
-        <v>-5.837463992144948</v>
+        <v>-6.768739097783949</v>
       </c>
       <c r="G51">
-        <v>0.7724100008918219</v>
+        <v>0.9949740139203488</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>2-Hydroxyphenylacetate_iso2</t>
         </is>
       </c>
       <c r="I51">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J51">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K51">
-        <v>0.296456896460613</v>
+        <v>0.05489868980177863</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -2771,39 +2556,39 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.361809734252148</v>
+        <v>0.03738816160277203</v>
       </c>
       <c r="B52">
-        <v>16.87201299735657</v>
+        <v>12.58205386157074</v>
       </c>
       <c r="C52">
-        <v>1.261985458945721</v>
+        <v>0.2064457715941627</v>
       </c>
       <c r="D52">
-        <v>0.2298830512466553</v>
+        <v>0.8372366971834012</v>
       </c>
       <c r="E52">
-        <v>0.6191426014058483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F52">
-        <v>-5.308668457982624</v>
+        <v>-6.758640364506292</v>
       </c>
       <c r="G52">
-        <v>0.5874717675368268</v>
+        <v>0.9933800598034732</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso1</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="I52">
-        <v>0.6191426014058483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J52">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K52">
-        <v>0.6384930470925815</v>
+        <v>0.07715174421895887</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -2813,39 +2598,39 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.3602385219459165</v>
+        <v>0.03708662990102241</v>
       </c>
       <c r="B53">
-        <v>15.72905308857861</v>
+        <v>13.85006459164772</v>
       </c>
       <c r="C53">
-        <v>1.688900116020996</v>
+        <v>0.1488876150480061</v>
       </c>
       <c r="D53">
-        <v>0.115888844040377</v>
+        <v>0.8822094843678561</v>
       </c>
       <c r="E53">
-        <v>0.464206085047383</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F53">
-        <v>-4.765544459457266</v>
+        <v>-6.768921971609596</v>
       </c>
       <c r="G53">
-        <v>0.4600782900993488</v>
+        <v>0.9953628754582291</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="I53">
-        <v>0.464206085047383</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J53">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K53">
-        <v>0.9359583690829618</v>
+        <v>0.05442827756363839</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -2855,39 +2640,39 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.3560122782151822</v>
+        <v>0.03639951139690112</v>
       </c>
       <c r="B54">
-        <v>13.6979185459431</v>
+        <v>16.174664878752</v>
       </c>
       <c r="C54">
-        <v>1.035334832818287</v>
+        <v>0.2132739294703862</v>
       </c>
       <c r="D54">
-        <v>0.3200335706836075</v>
+        <v>0.8319346171574358</v>
       </c>
       <c r="E54">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F54">
-        <v>-5.548285764684552</v>
+        <v>-6.757199961631069</v>
       </c>
       <c r="G54">
-        <v>0.6665665807059418</v>
+        <v>0.9933248166625943</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="I54">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J54">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K54">
-        <v>0.4948044629365354</v>
+        <v>0.07991080414620383</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -2897,39 +2682,39 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.3528173259052227</v>
+        <v>0.03444244294466614</v>
       </c>
       <c r="B55">
-        <v>10.61040671535603</v>
+        <v>16.97276228818807</v>
       </c>
       <c r="C55">
-        <v>1.850651642857372</v>
+        <v>0.180276361516159</v>
       </c>
       <c r="D55">
-        <v>0.08787048312530894</v>
+        <v>0.8576257093814288</v>
       </c>
       <c r="E55">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F55">
-        <v>-4.534107128645552</v>
+        <v>-6.763727438696439</v>
       </c>
       <c r="G55">
-        <v>0.4240035732099309</v>
+        <v>0.9947240379571616</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="I55">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J55">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K55">
-        <v>1.05615698577492</v>
+        <v>0.06670220844056525</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -2939,39 +2724,39 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.3376036035780992</v>
+        <v>0.03318158417143025</v>
       </c>
       <c r="B56">
-        <v>18.75083350253659</v>
+        <v>19.31253387149469</v>
       </c>
       <c r="C56">
-        <v>1.372328246542313</v>
+        <v>0.1597828096634611</v>
       </c>
       <c r="D56">
-        <v>0.1939696055607586</v>
+        <v>0.8736618133891804</v>
       </c>
       <c r="E56">
-        <v>0.5881659007326228</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F56">
-        <v>-5.178923847984802</v>
+        <v>-6.767231066454777</v>
       </c>
       <c r="G56">
-        <v>0.5748258954932606</v>
+        <v>0.9955284587957656</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="I56">
-        <v>0.5881659007326228</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J56">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K56">
-        <v>0.7122663173450291</v>
+        <v>0.05865664631501446</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -2981,39 +2766,39 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.3322828604202392</v>
+        <v>0.0298741154422224</v>
       </c>
       <c r="B57">
-        <v>13.56479551232737</v>
+        <v>21.40621013069917</v>
       </c>
       <c r="C57">
-        <v>1.936347327537118</v>
+        <v>0.2899081722280765</v>
       </c>
       <c r="D57">
-        <v>0.07564898160612821</v>
+        <v>0.7730219008311697</v>
       </c>
       <c r="E57">
-        <v>0.3843786092419487</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F57">
-        <v>-4.406807566689279</v>
+        <v>-6.73782696498365</v>
       </c>
       <c r="G57">
-        <v>0.4240777453764511</v>
+        <v>0.992338472038647</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="I57">
-        <v>0.3843786092419487</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J57">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K57">
-        <v>1.121196914115559</v>
+        <v>0.111808201715066</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3023,39 +2808,39 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.3321533827617245</v>
+        <v>0.02984181050942247</v>
       </c>
       <c r="B58">
-        <v>15.0805837187975</v>
+        <v>11.76920903018648</v>
       </c>
       <c r="C58">
-        <v>1.816320995302623</v>
+        <v>0.09074183212793026</v>
       </c>
       <c r="D58">
-        <v>0.09324937399046002</v>
+        <v>0.9280410807513696</v>
       </c>
       <c r="E58">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F58">
-        <v>-4.584231335617102</v>
+        <v>-6.775928770458283</v>
       </c>
       <c r="G58">
-        <v>0.4547413099793959</v>
+        <v>0.997773916510462</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="I58">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J58">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K58">
-        <v>1.030354075051729</v>
+        <v>0.03243279883636684</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3065,39 +2850,39 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.3273263285176267</v>
+        <v>0.02979792698425854</v>
       </c>
       <c r="B59">
-        <v>9.594327872536487</v>
+        <v>23.20155131192798</v>
       </c>
       <c r="C59">
-        <v>0.6552637064207055</v>
+        <v>0.4732456813501529</v>
       </c>
       <c r="D59">
-        <v>0.5241170770538339</v>
+        <v>0.6379885324392218</v>
       </c>
       <c r="E59">
-        <v>0.8723821185832588</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F59">
-        <v>-5.857666319181464</v>
+        <v>-6.667653860644699</v>
       </c>
       <c r="G59">
-        <v>0.8093968296120655</v>
+        <v>0.9866970465131668</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="I59">
-        <v>0.8723821185832588</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J59">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K59">
-        <v>0.2805716896593179</v>
+        <v>0.1951871274592858</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3107,39 +2892,39 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.3140132159158444</v>
+        <v>0.02801833586598157</v>
       </c>
       <c r="B60">
-        <v>11.80171575889708</v>
+        <v>12.67369586313809</v>
       </c>
       <c r="C60">
-        <v>1.839963608930738</v>
+        <v>0.1509479529841628</v>
       </c>
       <c r="D60">
-        <v>0.08951424670769824</v>
+        <v>0.8805919609908035</v>
       </c>
       <c r="E60">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F60">
-        <v>-4.549767368988237</v>
+        <v>-6.768611356718351</v>
       </c>
       <c r="G60">
-        <v>0.4686841717746596</v>
+        <v>0.9964435021560401</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="I60">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J60">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K60">
-        <v>1.04810783871601</v>
+        <v>0.05522528357473306</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3149,39 +2934,39 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.3102076709186186</v>
+        <v>0.02776202763702429</v>
       </c>
       <c r="B61">
-        <v>11.58661642876108</v>
+        <v>15.93305028238605</v>
       </c>
       <c r="C61">
-        <v>1.814593744417636</v>
+        <v>0.1499825813492699</v>
       </c>
       <c r="D61">
-        <v>0.09352767615769939</v>
+        <v>0.8813497884348986</v>
       </c>
       <c r="E61">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F61">
-        <v>-4.586739465816406</v>
+        <v>-6.768757426402968</v>
       </c>
       <c r="G61">
-        <v>0.4794879956606318</v>
+        <v>0.996499776696173</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="I61">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J61">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K61">
-        <v>1.029059856250383</v>
+        <v>0.05485169540405974</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3191,39 +2976,39 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.3035806801168963</v>
+        <v>0.0265609790249357</v>
       </c>
       <c r="B62">
-        <v>12.89336401972028</v>
+        <v>24.22091560052141</v>
       </c>
       <c r="C62">
-        <v>1.502990310461469</v>
+        <v>0.2208895267657971</v>
       </c>
       <c r="D62">
-        <v>0.1575594398504692</v>
+        <v>0.826030365320327</v>
       </c>
       <c r="E62">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F62">
-        <v>-5.015270269853113</v>
+        <v>-6.755538261609338</v>
       </c>
       <c r="G62">
-        <v>0.5706366135138249</v>
+        <v>0.9949364295519443</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="I62">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J62">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K62">
-        <v>0.8025555718479345</v>
+        <v>0.08300398748752741</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3233,39 +3018,39 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.2985365217160432</v>
+        <v>0.02633219118318486</v>
       </c>
       <c r="B63">
-        <v>12.80801005844354</v>
+        <v>12.09376817503343</v>
       </c>
       <c r="C63">
-        <v>1.450767635930273</v>
+        <v>0.1190449793223182</v>
       </c>
       <c r="D63">
-        <v>0.1713545980548271</v>
+        <v>0.9056914701016232</v>
       </c>
       <c r="E63">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F63">
-        <v>-5.081925129185248</v>
+        <v>-6.772942649188229</v>
       </c>
       <c r="G63">
-        <v>0.5905951901152454</v>
+        <v>0.9973950222754085</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="I63">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J63">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K63">
-        <v>0.7661042374083391</v>
+        <v>0.04301972246949644</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3275,39 +3060,39 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.2984714535620725</v>
+        <v>0.02625417322985513</v>
       </c>
       <c r="B64">
-        <v>15.96715669445028</v>
+        <v>19.66816970755886</v>
       </c>
       <c r="C64">
-        <v>1.133314255735709</v>
+        <v>0.3396071062923348</v>
       </c>
       <c r="D64">
-        <v>0.2782498568036204</v>
+        <v>0.7354995356621126</v>
       </c>
       <c r="E64">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F64">
-        <v>-5.449353363395407</v>
+        <v>-6.722119298661715</v>
       </c>
       <c r="G64">
-        <v>0.682621074100337</v>
+        <v>0.9919670152481043</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="I64">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J64">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K64">
-        <v>0.5555650504951894</v>
+        <v>0.1334175971165271</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3317,39 +3102,39 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.2982420934097014</v>
+        <v>0.0255697315996688</v>
       </c>
       <c r="B65">
-        <v>20.18584226960184</v>
+        <v>16.68102051159353</v>
       </c>
       <c r="C65">
-        <v>1.046594947760273</v>
+        <v>0.07114063372756729</v>
       </c>
       <c r="D65">
-        <v>0.3150080653609267</v>
+        <v>0.9435545922527554</v>
       </c>
       <c r="E65">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F65">
-        <v>-5.537291117484493</v>
+        <v>-6.777524704352532</v>
       </c>
       <c r="G65">
-        <v>0.7085628943306272</v>
+        <v>0.998515474632253</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="I65">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J65">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K65">
-        <v>0.5016783265376912</v>
+        <v>0.02523296732922339</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3359,39 +3144,39 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.2966534726805214</v>
+        <v>0.02540413069024439</v>
       </c>
       <c r="B66">
-        <v>13.01012850549847</v>
+        <v>16.89113957329824</v>
       </c>
       <c r="C66">
-        <v>1.688067659549788</v>
+        <v>0.073176231905202</v>
       </c>
       <c r="D66">
-        <v>0.1160515212618457</v>
+        <v>0.9419423734523773</v>
       </c>
       <c r="E66">
-        <v>0.464206085047383</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F66">
-        <v>-4.766703278738019</v>
+        <v>-6.777376945471628</v>
       </c>
       <c r="G66">
-        <v>0.5278681063763373</v>
+        <v>0.9984817027235683</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="I66">
-        <v>0.464206085047383</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J66">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K66">
-        <v>0.9353491622197405</v>
+        <v>0.02597566584531894</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3401,39 +3186,39 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.2963708736460351</v>
+        <v>0.02480463527359333</v>
       </c>
       <c r="B67">
-        <v>12.67164215116969</v>
+        <v>14.09155374372403</v>
       </c>
       <c r="C67">
-        <v>1.393846116003608</v>
+        <v>0.1450717230011491</v>
       </c>
       <c r="D67">
-        <v>0.1875325006922945</v>
+        <v>0.8852065822668964</v>
       </c>
       <c r="E67">
-        <v>0.5876018355025227</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F67">
-        <v>-5.152697162261218</v>
+        <v>-6.7694859873769</v>
       </c>
       <c r="G67">
-        <v>0.6089211522631175</v>
+        <v>0.9969800350711685</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="I67">
-        <v>0.5876018355025227</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J67">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K67">
-        <v>0.7269234551461399</v>
+        <v>0.05295536538241717</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3443,39 +3228,39 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.2939644760699842</v>
+        <v>0.02431481299485938</v>
       </c>
       <c r="B68">
-        <v>15.50807144472213</v>
+        <v>16.17884875298504</v>
       </c>
       <c r="C68">
-        <v>2.402966712306496</v>
+        <v>0.3377911155132645</v>
       </c>
       <c r="D68">
-        <v>0.03250454814263211</v>
+        <v>0.736859861264735</v>
       </c>
       <c r="E68">
-        <v>0.2263279648449939</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F68">
-        <v>-3.669067586104962</v>
+        <v>-6.722736733430628</v>
       </c>
       <c r="G68">
-        <v>0.3652283125479613</v>
+        <v>0.9926027832993265</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="I68">
-        <v>0.226327964844994</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J68">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K68">
-        <v>1.488055866865709</v>
+        <v>0.1326151000194971</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3485,39 +3270,39 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.2919190846490967</v>
+        <v>0.0153957181739095</v>
       </c>
       <c r="B69">
-        <v>10.88106218340102</v>
+        <v>15.85077093275128</v>
       </c>
       <c r="C69">
-        <v>2.231935426390457</v>
+        <v>0.08393871733924148</v>
       </c>
       <c r="D69">
-        <v>0.04451650655413027</v>
+        <v>0.9334225795147415</v>
       </c>
       <c r="E69">
-        <v>0.2789701077392164</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F69">
-        <v>-3.946987076983834</v>
+        <v>-6.776526461224911</v>
       </c>
       <c r="G69">
-        <v>0.4031600677112899</v>
+        <v>0.9989398396442509</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="I69">
-        <v>0.2789701077392164</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J69">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K69">
-        <v>1.351478924386593</v>
+        <v>0.02992169772978969</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -3527,39 +3312,39 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.2910356152679796</v>
+        <v>0.01481354356286602</v>
       </c>
       <c r="B70">
-        <v>12.88536955490664</v>
+        <v>13.14131241768648</v>
       </c>
       <c r="C70">
-        <v>1.076275812107272</v>
+        <v>0.08564494437122636</v>
       </c>
       <c r="D70">
-        <v>0.3020409363307585</v>
+        <v>0.9320725909075083</v>
       </c>
       <c r="E70">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F70">
-        <v>-5.507838610816673</v>
+        <v>-6.776380932485115</v>
       </c>
       <c r="G70">
-        <v>0.7057983398706327</v>
+        <v>0.9989584902465961</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="I70">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J70">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K70">
-        <v>0.5199341920834875</v>
+        <v>0.03055026296479442</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -3569,39 +3354,39 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.2711135195394245</v>
+        <v>0.0132093735823311</v>
       </c>
       <c r="B71">
-        <v>12.293036096546</v>
+        <v>13.6012978760662</v>
       </c>
       <c r="C71">
-        <v>0.2473148684985411</v>
+        <v>0.07272194538700294</v>
       </c>
       <c r="D71">
-        <v>0.8086606885333898</v>
+        <v>0.9423021529954756</v>
       </c>
       <c r="E71">
-        <v>0.9745726802153097</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F71">
-        <v>-6.042310480158315</v>
+        <v>-6.777410282218644</v>
       </c>
       <c r="G71">
-        <v>0.9440482802750174</v>
+        <v>0.9992152842391191</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="I71">
-        <v>0.9745726802153099</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J71">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K71">
-        <v>0.09223366875781087</v>
+        <v>0.02580981659382853</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -3611,39 +3396,39 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.2689579640405739</v>
+        <v>0.01306912761448942</v>
       </c>
       <c r="B72">
-        <v>14.58170462759997</v>
+        <v>15.95331277358645</v>
       </c>
       <c r="C72">
-        <v>1.482329088217879</v>
+        <v>0.0308158230279967</v>
       </c>
       <c r="D72">
-        <v>0.1629005099879982</v>
+        <v>0.9755326040978523</v>
       </c>
       <c r="E72">
-        <v>0.5671351088471049</v>
+        <v>0.9913520517318716</v>
       </c>
       <c r="F72">
-        <v>-5.041834505068659</v>
+        <v>-6.779592701173635</v>
       </c>
       <c r="G72">
-        <v>0.6138189119051065</v>
+        <v>0.9996763079365742</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="I72">
-        <v>0.5671351088471049</v>
+        <v>0.9913520517318715</v>
       </c>
       <c r="J72">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K72">
-        <v>0.7880775560559672</v>
+        <v>0.01075821110476906</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -3653,39 +3438,39 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.2675024288328434</v>
+        <v>0.01008563303404841</v>
       </c>
       <c r="B73">
-        <v>13.18680792265172</v>
+        <v>11.93139965476927</v>
       </c>
       <c r="C73">
-        <v>1.087692832016485</v>
+        <v>0.03841038418719305</v>
       </c>
       <c r="D73">
-        <v>0.2971605317812603</v>
+        <v>0.9695053354249139</v>
       </c>
       <c r="E73">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F73">
-        <v>-5.496329083109827</v>
+        <v>-6.779328246681656</v>
       </c>
       <c r="G73">
-        <v>0.7228094908334687</v>
+        <v>0.9996877037690149</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso2</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="I73">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J73">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K73">
-        <v>0.527008873134419</v>
+        <v>0.01344979654997638</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -3695,39 +3480,39 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.2586307378289359</v>
+        <v>0.009475944770926503</v>
       </c>
       <c r="B74">
-        <v>15.35302823887723</v>
+        <v>18.1986209144846</v>
       </c>
       <c r="C74">
-        <v>1.446514994683909</v>
+        <v>0.07295684184254402</v>
       </c>
       <c r="D74">
-        <v>0.1725214487149847</v>
+        <v>0.9421161214380864</v>
       </c>
       <c r="E74">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F74">
-        <v>-5.087281269333197</v>
+        <v>-6.777393070809889</v>
       </c>
       <c r="G74">
-        <v>0.6347813621710628</v>
+        <v>0.9994351398905281</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="I74">
-        <v>0.570638784614258</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J74">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K74">
-        <v>0.7631569036081515</v>
+        <v>0.02589556451953333</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -3737,39 +3522,39 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.2454118004967754</v>
+        <v>0.005787135233985552</v>
       </c>
       <c r="B75">
-        <v>12.05996011178778</v>
+        <v>13.71206438144059</v>
       </c>
       <c r="C75">
-        <v>1.509522064633127</v>
+        <v>0.0400775769690758</v>
       </c>
       <c r="D75">
-        <v>0.1559021983588006</v>
+        <v>0.9681824293047786</v>
       </c>
       <c r="E75">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F75">
-        <v>-5.00682053149511</v>
+        <v>-6.779262425774848</v>
       </c>
       <c r="G75">
-        <v>0.6337477270641775</v>
+        <v>0.9998128919391521</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="I75">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J75">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K75">
-        <v>0.8071477608319086</v>
+        <v>0.01404280325391895</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -3779,39 +3564,39 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.2308747803563129</v>
+        <v>0.004437971017761555</v>
       </c>
       <c r="B76">
-        <v>19.68694558643477</v>
+        <v>11.94864781303279</v>
       </c>
       <c r="C76">
-        <v>0.6837327419154683</v>
+        <v>0.02118018099419428</v>
       </c>
       <c r="D76">
-        <v>0.5065611823947653</v>
+        <v>0.9831817581826057</v>
       </c>
       <c r="E76">
-        <v>0.8703765606757353</v>
+        <v>0.9937536050447842</v>
       </c>
       <c r="F76">
-        <v>-5.838865977381631</v>
+        <v>-6.779844719793162</v>
       </c>
       <c r="G76">
-        <v>0.85468672073675</v>
+        <v>0.9999247291886944</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="I76">
-        <v>0.8703765606757353</v>
+        <v>0.9937536050447843</v>
       </c>
       <c r="J76">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K76">
-        <v>0.2953680931038193</v>
+        <v>0.00736618788617577</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -3821,39 +3606,39 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.228140142822129</v>
+        <v>0.001034168890022613</v>
       </c>
       <c r="B77">
-        <v>12.01363109586466</v>
+        <v>16.2072027322077</v>
       </c>
       <c r="C77">
-        <v>1.241459693352254</v>
+        <v>0.003035288859225354</v>
       </c>
       <c r="D77">
-        <v>0.2371184430916015</v>
+        <v>0.9975896319693389</v>
       </c>
       <c r="E77">
-        <v>0.6191426014058483</v>
+        <v>0.9989615047732257</v>
       </c>
       <c r="F77">
-        <v>-5.331897484493755</v>
+        <v>-6.780065740625053</v>
       </c>
       <c r="G77">
-        <v>0.7201193854741721</v>
+        <v>0.9999975042664518</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="I77">
-        <v>0.6191426014058483</v>
+        <v>0.9989615047732257</v>
       </c>
       <c r="J77">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K77">
-        <v>0.6250346652482781</v>
+        <v>0.001048073164140006</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -3863,39 +3648,39 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.2280084116078811</v>
+        <v>-0.0003484527318384778</v>
       </c>
       <c r="B78">
-        <v>12.95122656075511</v>
+        <v>12.34039255301509</v>
       </c>
       <c r="C78">
-        <v>1.052190842232708</v>
+        <v>-0.001307737630026381</v>
       </c>
       <c r="D78">
-        <v>0.3125323179902328</v>
+        <v>0.9989615047732257</v>
       </c>
       <c r="E78">
-        <v>0.6927212376929429</v>
+        <v>0.9989615047732257</v>
       </c>
       <c r="F78">
-        <v>-5.531790406080416</v>
+        <v>-6.780069514705839</v>
       </c>
       <c r="G78">
-        <v>0.7670643446928482</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="I78">
-        <v>0.6927212376929428</v>
+        <v>0.9989615047732257</v>
       </c>
       <c r="J78">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K78">
-        <v>0.5051050669627398</v>
+        <v>0.0004512470960244891</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -3905,39 +3690,39 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.2219789502559859</v>
+        <v>-0.008795597941583466</v>
       </c>
       <c r="B79">
-        <v>14.61899818223623</v>
+        <v>12.14408496121294</v>
       </c>
       <c r="C79">
-        <v>0.7346060402423239</v>
+        <v>-0.04648451931523261</v>
       </c>
       <c r="D79">
-        <v>0.4760700581288739</v>
+        <v>0.9630994352261074</v>
       </c>
       <c r="E79">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F79">
-        <v>-5.80343781087233</v>
+        <v>-6.778983460132185</v>
       </c>
       <c r="G79">
-        <v>0.8481051836028465</v>
+        <v>0.999669352359205</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="I79">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J79">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K79">
-        <v>0.3223291321115472</v>
+        <v>0.01632887181559721</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -3947,39 +3732,39 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.2195007216144447</v>
+        <v>-0.009758939114279386</v>
       </c>
       <c r="B80">
-        <v>21.44506446650161</v>
+        <v>11.377864282973</v>
       </c>
       <c r="C80">
-        <v>1.490698643046179</v>
+        <v>-0.06067388907382308</v>
       </c>
       <c r="D80">
-        <v>0.1607187114769863</v>
+        <v>0.951847991410822</v>
       </c>
       <c r="E80">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F80">
-        <v>-5.031103889457361</v>
+        <v>-6.778218651365971</v>
       </c>
       <c r="G80">
-        <v>0.6694698315381084</v>
+        <v>0.9995185129916089</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="I80">
-        <v>0.5671351088471049</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J80">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K80">
-        <v>0.7939335580957821</v>
+        <v>0.02143240220645521</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -3989,39 +3774,39 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.2182139267821768</v>
+        <v>-0.01129789614768661</v>
       </c>
       <c r="B81">
-        <v>15.24935987590467</v>
+        <v>11.8295377335953</v>
       </c>
       <c r="C81">
-        <v>1.824039672537804</v>
+        <v>-0.06749672625072432</v>
       </c>
       <c r="D81">
-        <v>0.0920147948141366</v>
+        <v>0.9464412014183626</v>
       </c>
       <c r="E81">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F81">
-        <v>-4.573006883785348</v>
+        <v>-6.777778798931417</v>
       </c>
       <c r="G81">
-        <v>0.5941543919158078</v>
+        <v>0.9993782844689438</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="I81">
-        <v>0.4089117004104066</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J81">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K81">
-        <v>1.036142337985329</v>
+        <v>0.02390636182987672</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4031,39 +3816,39 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.2126344096973796</v>
+        <v>-0.01313590500274131</v>
       </c>
       <c r="B82">
-        <v>11.07354471682673</v>
+        <v>19.42790082467425</v>
       </c>
       <c r="C82">
-        <v>1.070527947931176</v>
+        <v>-0.04269894735857891</v>
       </c>
       <c r="D82">
-        <v>0.3045205191640447</v>
+        <v>0.9661025733200957</v>
       </c>
       <c r="E82">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F82">
-        <v>-5.513595287750361</v>
+        <v>-6.77915327944917</v>
       </c>
       <c r="G82">
-        <v>0.7766030867287511</v>
+        <v>0.9995471073975528</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2-Oxindole</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="I82">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J82">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K82">
-        <v>0.5163834384679562</v>
+        <v>0.0149767610979699</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4073,39 +3858,39 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.2098949139060231</v>
+        <v>-0.01508997193910133</v>
       </c>
       <c r="B83">
-        <v>15.7668809871535</v>
+        <v>18.06932086652765</v>
       </c>
       <c r="C83">
-        <v>1.037384216141002</v>
+        <v>-0.04087826608503079</v>
       </c>
       <c r="D83">
-        <v>0.3191145506078938</v>
+        <v>0.9675471197257498</v>
       </c>
       <c r="E83">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F83">
-        <v>-5.546292069915757</v>
+        <v>-6.779229820617363</v>
       </c>
       <c r="G83">
-        <v>0.7868300101456824</v>
+        <v>0.9995022883310049</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>Tauroursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="I83">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J83">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K83">
-        <v>0.4960533929088224</v>
+        <v>0.01432787557150318</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4115,39 +3900,39 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.2096552903636351</v>
+        <v>-0.01651593152892517</v>
       </c>
       <c r="B84">
-        <v>12.60766202240989</v>
+        <v>16.47527501521068</v>
       </c>
       <c r="C84">
-        <v>1.041108770160617</v>
+        <v>-0.1207103814999271</v>
       </c>
       <c r="D84">
-        <v>0.317449289738253</v>
+        <v>0.9043785936017286</v>
       </c>
       <c r="E84">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F84">
-        <v>-5.542660317208048</v>
+        <v>-6.772741852937165</v>
       </c>
       <c r="G84">
-        <v>0.7861825375837243</v>
+        <v>0.9983414068224727</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="I84">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J84">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K84">
-        <v>0.4983256402799819</v>
+        <v>0.0436497258386978</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4157,39 +3942,39 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.2057035955809923</v>
+        <v>-0.0165678558061888</v>
       </c>
       <c r="B85">
-        <v>15.22356334708084</v>
+        <v>13.88852658923871</v>
       </c>
       <c r="C85">
-        <v>1.034145490032543</v>
+        <v>-0.04036291344330947</v>
       </c>
       <c r="D85">
-        <v>0.3205678068047129</v>
+        <v>0.9679560256777073</v>
       </c>
       <c r="E85">
-        <v>0.6927212376929429</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F85">
-        <v>-5.54944128140138</v>
+        <v>-6.779250880444812</v>
       </c>
       <c r="G85">
-        <v>0.7913451557419816</v>
+        <v>0.9994605533411994</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="I85">
-        <v>0.6927212376929428</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J85">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K85">
-        <v>0.4940800940501388</v>
+        <v>0.01414437227767866</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4199,39 +3984,39 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.2010390065517953</v>
+        <v>-0.02707926864080434</v>
       </c>
       <c r="B86">
-        <v>11.83072995724921</v>
+        <v>16.33581348851306</v>
       </c>
       <c r="C86">
-        <v>1.247616170304727</v>
+        <v>-0.1068699299915171</v>
       </c>
       <c r="D86">
-        <v>0.2349295189098112</v>
+        <v>0.9152971751804525</v>
       </c>
       <c r="E86">
-        <v>0.6191426014058483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F86">
-        <v>-5.324960826438598</v>
+        <v>-6.774325887094844</v>
       </c>
       <c r="G86">
-        <v>0.7473670004181485</v>
+        <v>0.9976061788916151</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="I86">
-        <v>0.6191426014058483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J86">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K86">
-        <v>0.6290624106630137</v>
+        <v>0.03843787796944473</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4241,39 +4026,39 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.2006878335147828</v>
+        <v>-0.03076650090029531</v>
       </c>
       <c r="B87">
-        <v>13.6556498626339</v>
+        <v>13.97409463948418</v>
       </c>
       <c r="C87">
-        <v>0.3633650024817708</v>
+        <v>-0.1916155256437986</v>
       </c>
       <c r="D87">
-        <v>0.7223739343358773</v>
+        <v>0.8487783223809452</v>
       </c>
       <c r="E87">
-        <v>0.9211795691981483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F87">
-        <v>-6.00633457477165</v>
+        <v>-6.761607626326742</v>
       </c>
       <c r="G87">
-        <v>0.9368180830606734</v>
+        <v>0.9949683112709141</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Succinate_iso2</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="I87">
-        <v>0.9211795691981483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J87">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K87">
-        <v>0.1412379332071863</v>
+        <v>0.07120572075440315</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4283,39 +4068,39 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1773063360484137</v>
+        <v>-0.03191199314440496</v>
       </c>
       <c r="B88">
-        <v>15.23164261826883</v>
+        <v>10.77701806757276</v>
       </c>
       <c r="C88">
-        <v>1.171035213149671</v>
+        <v>-0.2329633139337349</v>
       </c>
       <c r="D88">
-        <v>0.2633198910140326</v>
+        <v>0.8166905853785634</v>
       </c>
       <c r="E88">
-        <v>0.6781388974060018</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F88">
-        <v>-5.409343802061381</v>
+        <v>-6.752784556642082</v>
       </c>
       <c r="G88">
-        <v>0.7893108673118697</v>
+        <v>0.9935588156434861</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="I88">
-        <v>0.6781388974060018</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J88">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K88">
-        <v>0.5795163333308856</v>
+        <v>0.0879424508296511</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -4325,39 +4110,39 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.1760170307565918</v>
+        <v>-0.03399085388640444</v>
       </c>
       <c r="B89">
-        <v>15.45648642450867</v>
+        <v>19.10013100516055</v>
       </c>
       <c r="C89">
-        <v>1.303339410838296</v>
+        <v>-0.29065180662177</v>
       </c>
       <c r="D89">
-        <v>0.215842016633791</v>
+        <v>0.7724561640062155</v>
       </c>
       <c r="E89">
-        <v>0.6184812554154658</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F89">
-        <v>-5.260992384770223</v>
+        <v>-6.737610148080737</v>
       </c>
       <c r="G89">
-        <v>0.763478117630491</v>
+        <v>0.9912626353299446</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="I89">
-        <v>0.6184812554154658</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J89">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K89">
-        <v>0.6658640099959476</v>
+        <v>0.1121261569133332</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -4367,39 +4152,39 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.1662325672898337</v>
+        <v>-0.0389380938874524</v>
       </c>
       <c r="B90">
-        <v>12.44431767635928</v>
+        <v>14.58844471651085</v>
       </c>
       <c r="C90">
-        <v>0.3525509845273613</v>
+        <v>-0.4409620914237228</v>
       </c>
       <c r="D90">
-        <v>0.730269881053085</v>
+        <v>0.66104067373673</v>
       </c>
       <c r="E90">
-        <v>0.921414346563624</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F90">
-        <v>-6.010254358943004</v>
+        <v>-6.682440706774872</v>
       </c>
       <c r="G90">
-        <v>0.9490880239636286</v>
+        <v>0.9840111694006117</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="I90">
-        <v>0.9214143465636241</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J90">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K90">
-        <v>0.1365166108499718</v>
+        <v>0.1797718176157732</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -4409,39 +4194,39 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.1658148469795293</v>
+        <v>-0.04658842577160094</v>
       </c>
       <c r="B91">
-        <v>18.41199047586044</v>
+        <v>11.24241166143189</v>
       </c>
       <c r="C91">
-        <v>0.7628444482139696</v>
+        <v>-0.1179477330416752</v>
       </c>
       <c r="D91">
-        <v>0.4596426938383014</v>
+        <v>0.9065566008088708</v>
       </c>
       <c r="E91">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F91">
-        <v>-5.782771155513874</v>
+        <v>-6.773073419752937</v>
       </c>
       <c r="G91">
-        <v>0.8790716693230028</v>
+        <v>0.9954400194441136</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="I91">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J91">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K91">
-        <v>0.3375796387364993</v>
+        <v>0.04260507557114419</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -4451,39 +4236,39 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.1579285912513804</v>
+        <v>-0.04787369212112935</v>
       </c>
       <c r="B92">
-        <v>12.43783164634867</v>
+        <v>21.60969196563476</v>
       </c>
       <c r="C92">
-        <v>1.004346154814172</v>
+        <v>-0.5969636628653161</v>
       </c>
       <c r="D92">
-        <v>0.3341671754315553</v>
+        <v>0.55308280355918</v>
       </c>
       <c r="E92">
-        <v>0.7087271600855082</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F92">
-        <v>-5.578029606140196</v>
+        <v>-6.60142009471646</v>
       </c>
       <c r="G92">
-        <v>0.8410470108127658</v>
+        <v>0.9720450994034842</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="I92">
-        <v>0.7087271600855083</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J92">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K92">
-        <v>0.4760362122196156</v>
+        <v>0.2572098443973282</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -4493,39 +4278,39 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.1483430699165993</v>
+        <v>-0.04884161246583041</v>
       </c>
       <c r="B93">
-        <v>14.27289056193649</v>
+        <v>13.80705886857147</v>
       </c>
       <c r="C93">
-        <v>0.4786353408619808</v>
+        <v>-0.2944459883891554</v>
       </c>
       <c r="D93">
-        <v>0.6404214868077187</v>
+        <v>0.7695715961408113</v>
       </c>
       <c r="E93">
-        <v>0.9119801559331313</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F93">
-        <v>-5.957406144192952</v>
+        <v>-6.736495283435302</v>
       </c>
       <c r="G93">
-        <v>0.9360316993392042</v>
+        <v>0.9872888202123775</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Stearoylcarnitine_[M+Na]+</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="I93">
-        <v>0.9119801559331314</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J93">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K93">
-        <v>0.1935341054762205</v>
+        <v>0.1137509699033952</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -4535,39 +4320,39 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.1469060923419079</v>
+        <v>-0.04977390541136018</v>
       </c>
       <c r="B94">
-        <v>15.62980071654214</v>
+        <v>20.2332580646817</v>
       </c>
       <c r="C94">
-        <v>0.4246000281839414</v>
+        <v>-0.6356229593895535</v>
       </c>
       <c r="D94">
-        <v>0.6783102580152631</v>
+        <v>0.5277674468460634</v>
       </c>
       <c r="E94">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F94">
-        <v>-5.981961349389376</v>
+        <v>-6.577624096035476</v>
       </c>
       <c r="G94">
-        <v>0.9445735988787611</v>
+        <v>0.968690151085463</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="I94">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J94">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K94">
-        <v>0.1685716150951759</v>
+        <v>0.2775574009502353</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -4577,39 +4362,39 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.1449978550246342</v>
+        <v>-0.05366316608956012</v>
       </c>
       <c r="B95">
-        <v>11.9875433809306</v>
+        <v>15.27161294093979</v>
       </c>
       <c r="C95">
-        <v>0.7194419990220322</v>
+        <v>-0.3769904476489958</v>
       </c>
       <c r="D95">
-        <v>0.4850390153506094</v>
+        <v>0.7076915514793953</v>
       </c>
       <c r="E95">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F95">
-        <v>-5.814242058686526</v>
+        <v>-6.708677096545892</v>
       </c>
       <c r="G95">
-        <v>0.9004058161908074</v>
+        <v>0.9816171879798342</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="I95">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J95">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K95">
-        <v>0.3142233264080705</v>
+        <v>0.1501559890319897</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -4619,39 +4404,39 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.1404476112995177</v>
+        <v>-0.05371838593248413</v>
       </c>
       <c r="B96">
-        <v>13.17663796411927</v>
+        <v>15.39121393844468</v>
       </c>
       <c r="C96">
-        <v>0.4148307950195271</v>
+        <v>-0.1350774807813071</v>
       </c>
       <c r="D96">
-        <v>0.6852629598954729</v>
+        <v>0.8930642122411415</v>
       </c>
       <c r="E96">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F96">
-        <v>-5.986096884797882</v>
+        <v>-6.770893860416949</v>
       </c>
       <c r="G96">
-        <v>0.948301732392514</v>
+        <v>0.9939430405332693</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="I96">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J96">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K96">
-        <v>0.1641427422052951</v>
+        <v>0.04911731376607675</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -4661,39 +4446,39 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.1324720194222753</v>
+        <v>-0.05592585691508312</v>
       </c>
       <c r="B97">
-        <v>13.95288286782954</v>
+        <v>14.32150146996017</v>
       </c>
       <c r="C97">
-        <v>0.6548779655842378</v>
+        <v>-0.2145220995767807</v>
       </c>
       <c r="D97">
-        <v>0.5243573372335545</v>
+        <v>0.8309662523573995</v>
       </c>
       <c r="E97">
-        <v>0.8723821185832588</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F97">
-        <v>-5.857915955017722</v>
+        <v>-6.756931601836886</v>
       </c>
       <c r="G97">
-        <v>0.9180333719705468</v>
+        <v>0.9896978617538911</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="I97">
-        <v>0.8723821185832588</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J97">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K97">
-        <v>0.2803726506161554</v>
+        <v>0.08041661365580677</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -4703,39 +4488,39 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.1273678607872686</v>
+        <v>-0.05972109794362268</v>
       </c>
       <c r="B98">
-        <v>13.62719036103544</v>
+        <v>13.94318524376749</v>
       </c>
       <c r="C98">
-        <v>0.6337198346997481</v>
+        <v>-0.4573610121650615</v>
       </c>
       <c r="D98">
-        <v>0.5376323166448143</v>
+        <v>0.6492878510219444</v>
       </c>
       <c r="E98">
-        <v>0.8789119611236964</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F98">
-        <v>-5.871398666865314</v>
+        <v>-6.675058979879098</v>
       </c>
       <c r="G98">
-        <v>0.924001119934455</v>
+        <v>0.9745374840647197</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="I98">
-        <v>0.8789119611236964</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J98">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K98">
-        <v>0.2695146340786851</v>
+        <v>0.187562723237659</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -4745,39 +4530,39 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.1100660601076218</v>
+        <v>-0.06556121888972655</v>
       </c>
       <c r="B99">
-        <v>16.03788348784778</v>
+        <v>15.01967725804842</v>
       </c>
       <c r="C99">
-        <v>0.5412021849235866</v>
+        <v>-0.3329591744219874</v>
       </c>
       <c r="D99">
-        <v>0.5978357424142653</v>
+        <v>0.740483502796359</v>
       </c>
       <c r="E99">
-        <v>0.9081970063695183</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F99">
-        <v>-5.925451927063554</v>
+        <v>-6.724363534580916</v>
       </c>
       <c r="G99">
-        <v>0.9449509095332588</v>
+        <v>0.980494743545087</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="I99">
-        <v>0.9081970063695183</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J99">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K99">
-        <v>0.2234181236405783</v>
+        <v>0.1304846126651467</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -4787,39 +4572,39 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.1042771861185177</v>
+        <v>-0.06666148933439686</v>
       </c>
       <c r="B100">
-        <v>14.66324021755368</v>
+        <v>18.88602260811894</v>
       </c>
       <c r="C100">
-        <v>0.7882951151960322</v>
+        <v>-0.1644578487531396</v>
       </c>
       <c r="D100">
-        <v>0.445146310676517</v>
+        <v>0.8699986613380617</v>
       </c>
       <c r="E100">
-        <v>0.8653885927251653</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F100">
-        <v>-5.763540091956577</v>
+        <v>-6.76646894945785</v>
       </c>
       <c r="G100">
-        <v>0.9190663358886249</v>
+        <v>0.9907594394391546</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="I100">
-        <v>0.8653885927251654</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J100">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K100">
-        <v>0.3514972216576471</v>
+        <v>0.06048141562728977</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -4829,39 +4614,39 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.09871000666759144</v>
+        <v>-0.07455425265670002</v>
       </c>
       <c r="B101">
-        <v>24.27432341004389</v>
+        <v>17.49188218294635</v>
       </c>
       <c r="C101">
-        <v>0.5782832609427058</v>
+        <v>-0.5075919132273268</v>
       </c>
       <c r="D101">
-        <v>0.5732947589852165</v>
+        <v>0.613853244516348</v>
       </c>
       <c r="E101">
-        <v>0.9057093671363085</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F101">
-        <v>-5.904752957384306</v>
+        <v>-6.650785886268314</v>
       </c>
       <c r="G101">
-        <v>0.9465629205283331</v>
+        <v>0.9642714564538284</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="I101">
-        <v>0.9057093671363086</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J101">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K101">
-        <v>0.2416220284925568</v>
+        <v>0.2119354443552318</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -4871,39 +4656,39 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.09513852270468526</v>
+        <v>-0.07466850276900416</v>
       </c>
       <c r="B102">
-        <v>12.09845919479696</v>
+        <v>12.45462065711551</v>
       </c>
       <c r="C102">
-        <v>0.6850991024140575</v>
+        <v>-0.4807346991140722</v>
       </c>
       <c r="D102">
-        <v>0.5057273968966409</v>
+        <v>0.6326909792151714</v>
       </c>
       <c r="E102">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F102">
-        <v>-5.837945049099274</v>
+        <v>-6.664075689763172</v>
       </c>
       <c r="G102">
-        <v>0.937197348964095</v>
+        <v>0.9663963424697023</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="I102">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J102">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K102">
-        <v>0.2960835185866739</v>
+        <v>0.1988083575828966</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -4913,39 +4698,39 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.07540420783001878</v>
+        <v>-0.07827065826140611</v>
       </c>
       <c r="B103">
-        <v>16.18029236465156</v>
+        <v>15.85754257141691</v>
       </c>
       <c r="C103">
-        <v>0.6105515140538874</v>
+        <v>-0.6202222992194685</v>
       </c>
       <c r="D103">
-        <v>0.5523834870034154</v>
+        <v>0.5377790853372151</v>
       </c>
       <c r="E103">
-        <v>0.8800686064122212</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F103">
-        <v>-5.885687020787638</v>
+        <v>-6.587279955510271</v>
       </c>
       <c r="G103">
-        <v>0.9562332992483069</v>
+        <v>0.9526079257799085</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="I103">
-        <v>0.8800686064122213</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J103">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K103">
-        <v>0.2577593127336816</v>
+        <v>0.2693960918473045</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -4955,39 +4740,39 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.07351703859841763</v>
+        <v>-0.08120144791869421</v>
       </c>
       <c r="B104">
-        <v>13.24080609577774</v>
+        <v>11.23998835399107</v>
       </c>
       <c r="C104">
-        <v>0.39423740384439</v>
+        <v>-0.4583967837461198</v>
       </c>
       <c r="D104">
-        <v>0.7000169765939279</v>
+        <v>0.6485484976180136</v>
       </c>
       <c r="E104">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F104">
-        <v>-5.994507848843018</v>
+        <v>-6.674583765358351</v>
       </c>
       <c r="G104">
-        <v>0.9741208542611598</v>
+        <v>0.9654492628094394</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>2-Oxindole</t>
         </is>
       </c>
       <c r="I104">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J104">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K104">
-        <v>0.1548914274833692</v>
+        <v>0.1880575423858143</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -4997,39 +4782,39 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.07006959068277041</v>
+        <v>-0.08185534037601627</v>
       </c>
       <c r="B105">
-        <v>12.85252317843192</v>
+        <v>14.11823895812242</v>
       </c>
       <c r="C105">
-        <v>0.4717740956029129</v>
+        <v>-0.3207417709008162</v>
       </c>
       <c r="D105">
-        <v>0.645177450739928</v>
+        <v>0.7496720518020562</v>
       </c>
       <c r="E105">
-        <v>0.9119801559331313</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F105">
-        <v>-5.960681220862507</v>
+        <v>-6.728372724805396</v>
       </c>
       <c r="G105">
-        <v>0.9697600700948016</v>
+        <v>0.9766918175593717</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="I105">
-        <v>0.9119801559331314</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J105">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K105">
-        <v>0.1903208198174121</v>
+        <v>0.1251286795959235</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -5039,39 +4824,39 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.06796815759828334</v>
+        <v>-0.08209465837271779</v>
       </c>
       <c r="B106">
-        <v>15.52083218615233</v>
+        <v>12.75594727221962</v>
       </c>
       <c r="C106">
-        <v>0.4855024542897684</v>
+        <v>-0.2920909327113784</v>
       </c>
       <c r="D106">
-        <v>0.635678007756364</v>
+        <v>0.7713616695397795</v>
       </c>
       <c r="E106">
-        <v>0.9119801559331313</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F106">
-        <v>-5.954082716689515</v>
+        <v>-6.737188978486882</v>
       </c>
       <c r="G106">
-        <v>0.9696754359332908</v>
+        <v>0.9789138846560742</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="I106">
-        <v>0.9119801559331314</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J106">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K106">
-        <v>0.1967628133851344</v>
+        <v>0.1127419458704946</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -5081,39 +4866,39 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.06470837580187805</v>
+        <v>-0.08481294068690914</v>
       </c>
       <c r="B107">
-        <v>14.57066670309344</v>
+        <v>15.43669968285632</v>
       </c>
       <c r="C107">
-        <v>0.1186674678890828</v>
+        <v>-0.9050758774703059</v>
       </c>
       <c r="D107">
-        <v>0.9074154496365069</v>
+        <v>0.3695363936808256</v>
       </c>
       <c r="E107">
-        <v>0.9970935950845311</v>
+        <v>0.9516827672876056</v>
       </c>
       <c r="F107">
-        <v>-6.066329047019298</v>
+        <v>-6.371216433500123</v>
       </c>
       <c r="G107">
-        <v>0.9937329853205179</v>
+        <v>0.9190343355248507</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="I107">
-        <v>0.997093595084531</v>
+        <v>0.9516827672876056</v>
       </c>
       <c r="J107">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K107">
-        <v>0.04219383071826917</v>
+        <v>0.432342783801146</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -5123,39 +4908,39 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.05683988198311596</v>
+        <v>-0.08487322619182436</v>
       </c>
       <c r="B108">
-        <v>13.13927900449709</v>
+        <v>13.42943289044592</v>
       </c>
       <c r="C108">
-        <v>0.187700312772156</v>
+        <v>-0.6007083851969347</v>
       </c>
       <c r="D108">
-        <v>0.8541095334078825</v>
+        <v>0.5506040863614423</v>
       </c>
       <c r="E108">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F108">
-        <v>-6.055528273042574</v>
+        <v>-6.599179472845799</v>
       </c>
       <c r="G108">
-        <v>0.9910766390242082</v>
+        <v>0.9506140007453208</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="I108">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J108">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K108">
-        <v>0.06848643059406577</v>
+        <v>0.2591605697722564</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -5165,39 +4950,39 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.05459244951407349</v>
+        <v>-0.08862571058599933</v>
       </c>
       <c r="B109">
-        <v>13.67647623285858</v>
+        <v>14.91171560972774</v>
       </c>
       <c r="C109">
-        <v>0.3595114109169089</v>
+        <v>-0.5629582546305851</v>
       </c>
       <c r="D109">
-        <v>0.7251839161772657</v>
+        <v>0.5758459672865566</v>
       </c>
       <c r="E109">
-        <v>0.9211795691981483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F109">
-        <v>-6.007744686346937</v>
+        <v>-6.62113385891348</v>
       </c>
       <c r="G109">
-        <v>0.9826107778073572</v>
+        <v>0.9522631489381576</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="I109">
-        <v>0.9211795691981483</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J109">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K109">
-        <v>0.1395518366682583</v>
+        <v>0.2396936702288903</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -5207,39 +4992,39 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.05365603496783322</v>
+        <v>-0.08901766080063567</v>
       </c>
       <c r="B110">
-        <v>13.19942421570958</v>
+        <v>17.92819347151477</v>
       </c>
       <c r="C110">
-        <v>0.3912052699734984</v>
+        <v>-0.3659842285425136</v>
       </c>
       <c r="D110">
-        <v>0.7022002967989593</v>
+        <v>0.7158390753241766</v>
       </c>
       <c r="E110">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F110">
-        <v>-5.99571104865166</v>
+        <v>-6.712779627136942</v>
       </c>
       <c r="G110">
-        <v>0.9812094144865143</v>
+        <v>0.9706798327862617</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="I110">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J110">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K110">
-        <v>0.1535389913074049</v>
+        <v>0.1451845985773555</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -5249,39 +5034,39 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.04932936440818381</v>
+        <v>-0.09294459316068782</v>
       </c>
       <c r="B111">
-        <v>10.88644016043777</v>
+        <v>12.84658651976529</v>
       </c>
       <c r="C111">
-        <v>0.343721294267987</v>
+        <v>-0.5433652206002081</v>
       </c>
       <c r="D111">
-        <v>0.7367409059672806</v>
+        <v>0.5891650273478939</v>
       </c>
       <c r="E111">
-        <v>0.9233819354789917</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F111">
-        <v>-6.013368855103387</v>
+        <v>-6.631973867393294</v>
       </c>
       <c r="G111">
-        <v>0.9850419418794713</v>
+        <v>0.9520171404909692</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="I111">
-        <v>0.9233819354789917</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J111">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K111">
-        <v>0.1326852162009468</v>
+        <v>0.2297630406491767</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -5291,39 +5076,39 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.04646324610186703</v>
+        <v>-0.0944338013415198</v>
       </c>
       <c r="B112">
-        <v>14.93128329662779</v>
+        <v>14.53857148654632</v>
       </c>
       <c r="C112">
-        <v>0.2435269181609649</v>
+        <v>-0.9917638549139288</v>
       </c>
       <c r="D112">
-        <v>0.8115289799309504</v>
+        <v>0.3258358286039352</v>
       </c>
       <c r="E112">
-        <v>0.9745726802153097</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F112">
-        <v>-6.043257179037592</v>
+        <v>-6.289908507418446</v>
       </c>
       <c r="G112">
-        <v>0.9903437633543394</v>
+        <v>0.8995195961390257</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="I112">
-        <v>0.9745726802153099</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J112">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K112">
-        <v>0.09069596678122024</v>
+        <v>0.4870011627854548</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -5333,39 +5118,39 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.04502196555464977</v>
+        <v>-0.0944725606387351</v>
       </c>
       <c r="B113">
-        <v>16.4486687323938</v>
+        <v>14.16161241671549</v>
       </c>
       <c r="C113">
-        <v>0.2294157498464321</v>
+        <v>-1.062446272270178</v>
       </c>
       <c r="D113">
-        <v>0.822238870026197</v>
+        <v>0.2928681619848507</v>
       </c>
       <c r="E113">
-        <v>0.9745726802153097</v>
+        <v>0.9026100730024907</v>
       </c>
       <c r="F113">
-        <v>-6.046656498903135</v>
+        <v>-6.21832164667581</v>
       </c>
       <c r="G113">
-        <v>0.9912268169057223</v>
+        <v>0.8904615131283998</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="I113">
-        <v>0.9745726802153099</v>
+        <v>0.9026100730024907</v>
       </c>
       <c r="J113">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K113">
-        <v>0.08500199649404111</v>
+        <v>0.5333278383759124</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -5375,39 +5160,39 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.04458101434964945</v>
+        <v>-0.09537966629606842</v>
       </c>
       <c r="B114">
-        <v>19.66018933300334</v>
+        <v>12.38146066699429</v>
       </c>
       <c r="C114">
-        <v>0.1692349164740781</v>
+        <v>-0.1548168797964021</v>
       </c>
       <c r="D114">
-        <v>0.8683066651309532</v>
+        <v>0.8775559461377735</v>
       </c>
       <c r="E114">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F114">
-        <v>-6.058892147529209</v>
+        <v>-6.76801655636727</v>
       </c>
       <c r="G114">
-        <v>0.9937244743181872</v>
+        <v>0.9876193052691568</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="I114">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J114">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K114">
-        <v>0.06132686531558579</v>
+        <v>0.05672518674315778</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -5417,39 +5202,39 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.0433789808359748</v>
+        <v>-0.09571265195164713</v>
       </c>
       <c r="B115">
-        <v>16.05960115243749</v>
+        <v>11.66125985324692</v>
       </c>
       <c r="C115">
-        <v>0.09823846586922122</v>
+        <v>-0.6421739653863517</v>
       </c>
       <c r="D115">
-        <v>0.9232931932549775</v>
+        <v>0.5235385934429813</v>
       </c>
       <c r="E115">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F115">
-        <v>-6.068594416494975</v>
+        <v>-6.573446073695865</v>
       </c>
       <c r="G115">
-        <v>0.9965439769487077</v>
+        <v>0.9399393574895016</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="I115">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J115">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K115">
-        <v>0.03466036615355488</v>
+        <v>0.2810512981273912</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -5459,39 +5244,39 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.0250391192947319</v>
+        <v>-0.09710772406475243</v>
       </c>
       <c r="B116">
-        <v>20.31570092431134</v>
+        <v>15.51814558644209</v>
       </c>
       <c r="C116">
-        <v>0.207775984299526</v>
+        <v>-0.9153119939135909</v>
       </c>
       <c r="D116">
-        <v>0.838734495788314</v>
+        <v>0.3641890403917845</v>
       </c>
       <c r="E116">
-        <v>0.9855130325512691</v>
+        <v>0.9509380499118817</v>
       </c>
       <c r="F116">
-        <v>-6.051478611272169</v>
+        <v>-6.361989876117851</v>
       </c>
       <c r="G116">
-        <v>0.9956062743240381</v>
+        <v>0.9065702245589575</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="I116">
-        <v>0.985513032551269</v>
+        <v>0.9509380499118816</v>
       </c>
       <c r="J116">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K116">
-        <v>0.07637549478815604</v>
+        <v>0.4386731276486999</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -5501,39 +5286,39 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.02319988892195468</v>
+        <v>-0.09769887661620835</v>
       </c>
       <c r="B117">
-        <v>11.44243722797342</v>
+        <v>12.57043723582311</v>
       </c>
       <c r="C117">
-        <v>0.1409289905498964</v>
+        <v>-0.5257069326064615</v>
       </c>
       <c r="D117">
-        <v>0.8901608775075956</v>
+        <v>0.6012927371562333</v>
       </c>
       <c r="E117">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F117">
-        <v>-6.06337587584448</v>
+        <v>-6.641418158525222</v>
       </c>
       <c r="G117">
-        <v>0.9973042617146893</v>
+        <v>0.9515178641011145</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="I117">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J117">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K117">
-        <v>0.05053149683841376</v>
+        <v>0.2209140418422111</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -5543,39 +5328,39 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.01994282146362281</v>
+        <v>-0.100974258839857</v>
       </c>
       <c r="B118">
-        <v>18.90418568342747</v>
+        <v>13.0873675259727</v>
       </c>
       <c r="C118">
-        <v>0.117971790731325</v>
+        <v>-0.6053669059997749</v>
       </c>
       <c r="D118">
-        <v>0.9079554989138097</v>
+        <v>0.5475283749652207</v>
       </c>
       <c r="E118">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F118">
-        <v>-6.066413193795639</v>
+        <v>-6.596372800578517</v>
       </c>
       <c r="G118">
-        <v>0.9980761758491763</v>
+        <v>0.9409917231312865</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="I118">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J118">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K118">
-        <v>0.04193543677603433</v>
+        <v>0.2615933691426391</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -5585,39 +5370,39 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.01976848391696961</v>
+        <v>-0.1079915655548511</v>
       </c>
       <c r="B119">
-        <v>20.58196334156099</v>
+        <v>16.51324595358643</v>
       </c>
       <c r="C119">
-        <v>0.1199871708925583</v>
+        <v>-0.275005782029402</v>
       </c>
       <c r="D119">
-        <v>0.9063911058236579</v>
+        <v>0.7843850052760997</v>
       </c>
       <c r="E119">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F119">
-        <v>-6.066168063908062</v>
+        <v>-6.742055224236325</v>
       </c>
       <c r="G119">
-        <v>0.9980589530489404</v>
+        <v>0.9741145989904718</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="I119">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J119">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K119">
-        <v>0.04268436474070746</v>
+        <v>0.1054707171308367</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -5627,39 +5412,39 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.01613572116725237</v>
+        <v>-0.1087794525746766</v>
       </c>
       <c r="B120">
-        <v>13.73259411137004</v>
+        <v>11.85674684211716</v>
       </c>
       <c r="C120">
-        <v>0.07535231703914259</v>
+        <v>-0.2959191640149455</v>
       </c>
       <c r="D120">
-        <v>0.9411212010547184</v>
+        <v>0.7684524793024371</v>
       </c>
       <c r="E120">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F120">
-        <v>-6.070626177191511</v>
+        <v>-6.73605852837816</v>
       </c>
       <c r="G120">
-        <v>0.9990213096566318</v>
+        <v>0.9717565612119551</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="I120">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J120">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K120">
-        <v>0.02635444292797216</v>
+        <v>0.1143829838764487</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -5669,39 +5454,39 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.01465190838113095</v>
+        <v>-0.1152069319070534</v>
       </c>
       <c r="B121">
-        <v>15.42090451386921</v>
+        <v>11.1212736423941</v>
       </c>
       <c r="C121">
-        <v>0.04365050573562582</v>
+        <v>-0.7836380437612932</v>
       </c>
       <c r="D121">
-        <v>0.9658692206113806</v>
+        <v>0.4367535325287133</v>
       </c>
       <c r="E121">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F121">
-        <v>-6.072556168290724</v>
+        <v>-6.472974653234552</v>
       </c>
       <c r="G121">
-        <v>0.9994913149999139</v>
+        <v>0.9089766821354318</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="I121">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J121">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K121">
-        <v>0.01508167338969521</v>
+        <v>0.3597635736912865</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -5711,39 +5496,39 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.01435982310200679</v>
+        <v>-0.1180186758422437</v>
       </c>
       <c r="B122">
-        <v>14.22829832889275</v>
+        <v>15.35959275588153</v>
       </c>
       <c r="C122">
-        <v>0.08101032251456403</v>
+        <v>-1.163506572262478</v>
       </c>
       <c r="D122">
-        <v>0.9367102123097009</v>
+        <v>0.249854805694852</v>
       </c>
       <c r="E122">
-        <v>0.9970935950845311</v>
+        <v>0.8240825170286347</v>
       </c>
       <c r="F122">
-        <v>-6.07017366982137</v>
+        <v>-6.107795525296055</v>
       </c>
       <c r="G122">
-        <v>0.9990615764574615</v>
+        <v>0.8490160508139341</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="I122">
-        <v>0.997093595084531</v>
+        <v>0.8240825170286347</v>
       </c>
       <c r="J122">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K122">
-        <v>0.02839474492893132</v>
+        <v>0.6023122929426897</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -5753,39 +5538,39 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.01391240111810532</v>
+        <v>-0.1231368140966946</v>
       </c>
       <c r="B123">
-        <v>21.6157433930012</v>
+        <v>14.25725692297307</v>
       </c>
       <c r="C123">
-        <v>0.1039316325710709</v>
+        <v>-0.7972190720830903</v>
       </c>
       <c r="D123">
-        <v>0.9188646126569502</v>
+        <v>0.4288941404673535</v>
       </c>
       <c r="E123">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F123">
-        <v>-6.068005910515284</v>
+        <v>-6.462302814059441</v>
       </c>
       <c r="G123">
-        <v>0.9988234741308967</v>
+        <v>0.9010082430140149</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="I123">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J123">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K123">
-        <v>0.03674847371454033</v>
+        <v>0.3676498870322675</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -5795,39 +5580,39 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.01231704286215773</v>
+        <v>-0.1245319492069132</v>
       </c>
       <c r="B124">
-        <v>17.38635763996482</v>
+        <v>13.59560112460098</v>
       </c>
       <c r="C124">
-        <v>0.05119643385264967</v>
+        <v>-1.534711356930005</v>
       </c>
       <c r="D124">
-        <v>0.9599741344607385</v>
+        <v>0.130825307073498</v>
       </c>
       <c r="E124">
-        <v>0.9970935950845311</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F124">
-        <v>-6.072189979094724</v>
+        <v>-5.62126905906219</v>
       </c>
       <c r="G124">
-        <v>0.9994969884306517</v>
+        <v>0.7762469440928971</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="I124">
-        <v>0.997093595084531</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J124">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K124">
-        <v>0.01774046843158348</v>
+        <v>0.8833082372099732</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -5837,39 +5622,39 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.01229753804350686</v>
+        <v>-0.1257824430890686</v>
       </c>
       <c r="B125">
-        <v>14.82238473843704</v>
+        <v>10.46273704343692</v>
       </c>
       <c r="C125">
-        <v>0.02924669091381714</v>
+        <v>-0.3634810542765712</v>
       </c>
       <c r="D125">
-        <v>0.9771273917733634</v>
+        <v>0.7176967851169657</v>
       </c>
       <c r="E125">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F125">
-        <v>-6.073093435089032</v>
+        <v>-6.71369579895136</v>
       </c>
       <c r="G125">
-        <v>0.999715497034451</v>
+        <v>0.9591353708571329</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="I125">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J125">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K125">
-        <v>0.01004881198485518</v>
+        <v>0.1440589991614263</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -5879,39 +5664,39 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.005585309679716488</v>
+        <v>-0.1259175340397363</v>
       </c>
       <c r="B126">
-        <v>14.41249611323687</v>
+        <v>21.97425660068878</v>
       </c>
       <c r="C126">
-        <v>0.01459771243566829</v>
+        <v>-0.4452000788779409</v>
       </c>
       <c r="D126">
-        <v>0.9885824231042895</v>
+        <v>0.6579949809483077</v>
       </c>
       <c r="E126">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F126">
-        <v>-6.073422100441678</v>
+        <v>-6.680558668088578</v>
       </c>
       <c r="G126">
-        <v>0.9999358645055427</v>
+        <v>0.9486609755208304</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="I126">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J126">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K126">
-        <v>0.004987115518654463</v>
+        <v>0.1817774190832598</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -5921,39 +5706,39 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.003108549871821964</v>
+        <v>-0.1278715927397105</v>
       </c>
       <c r="B127">
-        <v>12.02084359606253</v>
+        <v>14.1780225200779</v>
       </c>
       <c r="C127">
-        <v>0.01201210354716225</v>
+        <v>-0.3166840870376866</v>
       </c>
       <c r="D127">
-        <v>0.9906046365560696</v>
+        <v>0.7527319603442287</v>
       </c>
       <c r="E127">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F127">
-        <v>-6.073457309146747</v>
+        <v>-6.729671250238421</v>
       </c>
       <c r="G127">
-        <v>0.9999706564089516</v>
+        <v>0.9643302845097409</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="I127">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J127">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K127">
-        <v>0.004099643619862343</v>
+        <v>0.1233596438083423</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -5963,39 +5748,39 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.002405092985979351</v>
+        <v>-0.1346046691662366</v>
       </c>
       <c r="B128">
-        <v>14.79970436483315</v>
+        <v>11.89847883738344</v>
       </c>
       <c r="C128">
-        <v>0.01302451664682178</v>
+        <v>-0.7804408417036636</v>
       </c>
       <c r="D128">
-        <v>0.9898128159650578</v>
+        <v>0.4386161019967092</v>
       </c>
       <c r="E128">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F128">
-        <v>-6.073444337963449</v>
+        <v>-6.475460942772796</v>
       </c>
       <c r="G128">
-        <v>0.9999753735255392</v>
+        <v>0.8949997460488415</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="I128">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J128">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K128">
-        <v>0.004446927301108869</v>
+        <v>0.357915429019743</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -6005,39 +5790,39 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.001605505052543421</v>
+        <v>-0.1352570983496229</v>
       </c>
       <c r="B129">
-        <v>13.77369711260366</v>
+        <v>18.65716461464786</v>
       </c>
       <c r="C129">
-        <v>-0.00973833824321191</v>
+        <v>-1.830292406418052</v>
       </c>
       <c r="D129">
-        <v>0.9923830126044988</v>
+        <v>0.07285277060072307</v>
       </c>
       <c r="E129">
-        <v>0.9970935950845311</v>
+        <v>0.4891543168905692</v>
       </c>
       <c r="F129">
-        <v>-6.073482617344402</v>
+        <v>-5.146901995400725</v>
       </c>
       <c r="G129">
-        <v>0.9999877241512409</v>
+        <v>0.7016778326951313</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="I129">
-        <v>0.997093595084531</v>
+        <v>0.4891543168905692</v>
       </c>
       <c r="J129">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K129">
-        <v>0.003320678494217068</v>
+        <v>1.137553927302017</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -6047,39 +5832,39 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.002908840246155009</v>
+        <v>-0.1449120965738508</v>
       </c>
       <c r="B130">
-        <v>11.50957984238554</v>
+        <v>15.20593741011114</v>
       </c>
       <c r="C130">
-        <v>-0.003715792086427385</v>
+        <v>-1.214828441138312</v>
       </c>
       <c r="D130">
-        <v>0.9970935950845311</v>
+        <v>0.2298360591506887</v>
       </c>
       <c r="E130">
-        <v>0.9970935950845311</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="F130">
-        <v>-6.073524082723484</v>
+        <v>-6.048018632342886</v>
       </c>
       <c r="G130">
-        <v>0.9999915334586322</v>
+        <v>0.8080937869067212</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso1</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="I130">
-        <v>0.997093595084531</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="J130">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K130">
-        <v>0.001264073462745268</v>
+        <v>0.638581833517078</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -6089,39 +5874,39 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>-0.005769400065254615</v>
+        <v>-0.1456732661550522</v>
       </c>
       <c r="B131">
-        <v>13.72462435494412</v>
+        <v>13.35965450160577</v>
       </c>
       <c r="C131">
-        <v>-0.02281480813371226</v>
+        <v>-0.669365670206796</v>
       </c>
       <c r="D131">
-        <v>0.9821564221413437</v>
+        <v>0.5061786134875802</v>
       </c>
       <c r="E131">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F131">
-        <v>-6.073264784106292</v>
+        <v>-6.555653578899004</v>
       </c>
       <c r="G131">
-        <v>0.9998961291124279</v>
+        <v>0.9055761323062138</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="I131">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J131">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K131">
-        <v>0.007819339236589925</v>
+        <v>0.2956962081318193</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -6131,39 +5916,39 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.007014069298797665</v>
+        <v>-0.1530028034315567</v>
       </c>
       <c r="B132">
-        <v>13.50529109075441</v>
+        <v>14.42961625750129</v>
       </c>
       <c r="C132">
-        <v>-0.02449559236238346</v>
+        <v>-0.3667489162420469</v>
       </c>
       <c r="D132">
-        <v>0.9808421463054846</v>
+        <v>0.7152719130472366</v>
       </c>
       <c r="E132">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F132">
-        <v>-6.073224092947287</v>
+        <v>-6.712498500988475</v>
       </c>
       <c r="G132">
-        <v>0.9998643308474111</v>
+        <v>0.950022041067508</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2,6-Dihydroxypyridine</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="I132">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J132">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K132">
-        <v>0.008400881004041122</v>
+        <v>0.1455288282871623</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -6173,39 +5958,39 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.01030965141179152</v>
+        <v>-0.1552142553720781</v>
       </c>
       <c r="B133">
-        <v>20.78803512584137</v>
+        <v>13.93098920653252</v>
       </c>
       <c r="C133">
-        <v>-0.05981700056275498</v>
+        <v>-0.9798176228735961</v>
       </c>
       <c r="D133">
-        <v>0.9532425397170921</v>
+        <v>0.3316441841055744</v>
       </c>
       <c r="E133">
-        <v>0.9970935950845311</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F133">
-        <v>-6.071700368864007</v>
+        <v>-6.301539375608279</v>
       </c>
       <c r="G133">
-        <v>0.9995064348405377</v>
+        <v>0.8425613266905349</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>3-Hydroxybenzoate</t>
         </is>
       </c>
       <c r="I133">
-        <v>0.997093595084531</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J133">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K133">
-        <v>0.02079658492382091</v>
+        <v>0.4793276143252106</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -6215,39 +6000,39 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.0170546922685233</v>
+        <v>-0.1585312282253568</v>
       </c>
       <c r="B134">
-        <v>19.73484173379581</v>
+        <v>12.69673671252453</v>
       </c>
       <c r="C134">
-        <v>-0.1434763541543149</v>
+        <v>-0.3699701223811329</v>
       </c>
       <c r="D134">
-        <v>0.8881899992792328</v>
+        <v>0.7128845501561282</v>
       </c>
       <c r="E134">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F134">
-        <v>-6.063005753269318</v>
+        <v>-6.711307863569041</v>
       </c>
       <c r="G134">
-        <v>0.9979798752366933</v>
+        <v>0.9477612618569354</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="I134">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J134">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K134">
-        <v>0.05149412114466212</v>
+        <v>0.1469807973429051</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -6257,39 +6042,39 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>-0.01715503892845049</v>
+        <v>-0.1650280486186162</v>
       </c>
       <c r="B135">
-        <v>13.17427713834929</v>
+        <v>13.11681127811042</v>
       </c>
       <c r="C135">
-        <v>-0.04435050158590613</v>
+        <v>-0.9294239712132329</v>
       </c>
       <c r="D135">
-        <v>0.9653222708851681</v>
+        <v>0.3568989585779417</v>
       </c>
       <c r="E135">
-        <v>0.9970935950845311</v>
+        <v>0.9509380499118817</v>
       </c>
       <c r="F135">
-        <v>-6.072524649863145</v>
+        <v>-6.349105022428677</v>
       </c>
       <c r="G135">
-        <v>0.9993947257642398</v>
+        <v>0.843640500814966</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="I135">
-        <v>0.997093595084531</v>
+        <v>0.9509380499118816</v>
       </c>
       <c r="J135">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K135">
-        <v>0.01532767411553694</v>
+        <v>0.447454719302712</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -6299,39 +6084,39 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>-0.02293900632481893</v>
+        <v>-0.1702100729208968</v>
       </c>
       <c r="B136">
-        <v>13.91632771829529</v>
+        <v>14.27123485370977</v>
       </c>
       <c r="C136">
-        <v>-0.1082601485371722</v>
+        <v>-0.5376868445197012</v>
       </c>
       <c r="D136">
-        <v>0.9154994445023878</v>
+        <v>0.5930522631105219</v>
       </c>
       <c r="E136">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F136">
-        <v>-6.067536330035098</v>
+        <v>-6.635044527495972</v>
       </c>
       <c r="G136">
-        <v>0.9979768671584843</v>
+        <v>0.9149095006834221</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="I136">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J136">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K136">
-        <v>0.0383419148790743</v>
+        <v>0.2269070324698723</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -6341,39 +6126,39 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.02308452201869393</v>
+        <v>-0.1703125117769044</v>
       </c>
       <c r="B137">
-        <v>14.93971909078182</v>
+        <v>14.9013347737363</v>
       </c>
       <c r="C137">
-        <v>-0.09394405318609966</v>
+        <v>-1.291271121385401</v>
       </c>
       <c r="D137">
-        <v>0.9266354926968432</v>
+        <v>0.2022339880386049</v>
       </c>
       <c r="E137">
-        <v>0.9970935950845311</v>
+        <v>0.7603997950251545</v>
       </c>
       <c r="F137">
-        <v>-6.069016437073181</v>
+        <v>-5.954473385271032</v>
       </c>
       <c r="G137">
-        <v>0.9982426207893198</v>
+        <v>0.7616900389191835</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="I137">
-        <v>0.997093595084531</v>
+        <v>0.7603997950251545</v>
       </c>
       <c r="J137">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K137">
-        <v>0.033091069136988</v>
+        <v>0.6941458538035037</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -6383,39 +6168,39 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.02338648148167799</v>
+        <v>-0.1727220426264342</v>
       </c>
       <c r="B138">
-        <v>12.37340022337207</v>
+        <v>12.92525249325102</v>
       </c>
       <c r="C138">
-        <v>-0.1067011803128128</v>
+        <v>-0.6506849023042327</v>
       </c>
       <c r="D138">
-        <v>0.9167112587424642</v>
+        <v>0.5180713729335731</v>
       </c>
       <c r="E138">
-        <v>0.9970935950845311</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F138">
-        <v>-6.067707658473116</v>
+        <v>-6.567955100172433</v>
       </c>
       <c r="G138">
-        <v>0.9979683143451208</v>
+        <v>0.892624468477408</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="I138">
-        <v>0.997093595084531</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J138">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K138">
-        <v>0.03776743475693044</v>
+        <v>0.2856104048571934</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -6425,39 +6210,39 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>-0.02653186996181134</v>
+        <v>-0.173056445101917</v>
       </c>
       <c r="B139">
-        <v>23.19853329037192</v>
+        <v>13.55462101651523</v>
       </c>
       <c r="C139">
-        <v>-0.2375831109292198</v>
+        <v>-1.192390034949751</v>
       </c>
       <c r="D139">
-        <v>0.8160354355904942</v>
+        <v>0.2384393636704898</v>
       </c>
       <c r="E139">
-        <v>0.9745726802153097</v>
+        <v>0.8150290976373107</v>
       </c>
       <c r="F139">
-        <v>-6.044713511792718</v>
+        <v>-6.074454235695567</v>
       </c>
       <c r="G139">
-        <v>0.994620657951777</v>
+        <v>0.7802813776883155</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="I139">
-        <v>0.9745726802153099</v>
+        <v>0.8150290976373108</v>
       </c>
       <c r="J139">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K139">
-        <v>0.08829098199703014</v>
+        <v>0.6226220458543185</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -6467,39 +6252,39 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.05542869653814009</v>
+        <v>-0.1731723707058919</v>
       </c>
       <c r="B140">
-        <v>10.45941734061319</v>
+        <v>15.37345443579897</v>
       </c>
       <c r="C140">
-        <v>-0.1600588797954065</v>
+        <v>-2.199597401012802</v>
       </c>
       <c r="D140">
-        <v>0.875379785026318</v>
+        <v>0.03223526553397268</v>
       </c>
       <c r="E140">
-        <v>0.9970935950845311</v>
+        <v>0.2885823771612792</v>
       </c>
       <c r="F140">
-        <v>-6.060434930489344</v>
+        <v>-4.452782350887817</v>
       </c>
       <c r="G140">
-        <v>0.9926497283637921</v>
+        <v>0.5516761215558953</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="I140">
-        <v>0.997093595084531</v>
+        <v>0.2885823771612792</v>
       </c>
       <c r="J140">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K140">
-        <v>0.05780348668439654</v>
+        <v>1.491668747991603</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -6509,39 +6294,39 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.05547187156677325</v>
+        <v>-0.1791723930521396</v>
       </c>
       <c r="B141">
-        <v>19.35687574412329</v>
+        <v>14.82071940241758</v>
       </c>
       <c r="C141">
-        <v>-0.3030871850318311</v>
+        <v>-1.210125303192626</v>
       </c>
       <c r="D141">
-        <v>0.7667844152411172</v>
+        <v>0.2316202602219189</v>
       </c>
       <c r="E141">
-        <v>0.954671987187616</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="F141">
-        <v>-6.026701446475863</v>
+        <v>-6.05359819458985</v>
       </c>
       <c r="G141">
-        <v>0.9853774306435137</v>
+        <v>0.7694590172333596</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="I141">
-        <v>0.9546719871876161</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="J141">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K141">
-        <v>0.1153267226635201</v>
+        <v>0.6352234547989074</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -6551,39 +6336,39 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.05575233919702249</v>
+        <v>-0.1848625726388242</v>
       </c>
       <c r="B142">
-        <v>14.21656742137721</v>
+        <v>13.14545778220509</v>
       </c>
       <c r="C142">
-        <v>-0.4453776238092072</v>
+        <v>-1.349952566266446</v>
       </c>
       <c r="D142">
-        <v>0.6636254935117767</v>
+        <v>0.1827898651395754</v>
       </c>
       <c r="E142">
-        <v>0.9180948775600829</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="F142">
-        <v>-5.972855541426309</v>
+        <v>-5.879034806258771</v>
       </c>
       <c r="G142">
-        <v>0.9773987833984685</v>
+        <v>0.7304030344023534</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="I142">
-        <v>0.9180948775600829</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="J142">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K142">
-        <v>0.1780769386832045</v>
+        <v>0.7380478875736146</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -6593,39 +6378,39 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.05620315046468249</v>
+        <v>-0.1892504383707063</v>
       </c>
       <c r="B143">
-        <v>13.465801408189</v>
+        <v>18.43712231893043</v>
       </c>
       <c r="C143">
-        <v>-0.2492269813929696</v>
+        <v>-0.4563704123640251</v>
       </c>
       <c r="D143">
-        <v>0.8072139020196477</v>
+        <v>0.6499952925971824</v>
       </c>
       <c r="E143">
-        <v>0.9745726802153097</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F143">
-        <v>-6.041827104692941</v>
+        <v>-6.675512471820444</v>
       </c>
       <c r="G143">
-        <v>0.9880353159883164</v>
+        <v>0.9217076148245263</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="I143">
-        <v>0.9745726802153099</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J143">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K143">
-        <v>0.09301136718934483</v>
+        <v>0.1870897885978687</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -6635,39 +6420,39 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.0632199406660785</v>
+        <v>-0.1895874028082964</v>
       </c>
       <c r="B144">
-        <v>14.02512089744765</v>
+        <v>15.48180362130179</v>
       </c>
       <c r="C144">
-        <v>-0.2941538597086721</v>
+        <v>-0.4684432453373381</v>
       </c>
       <c r="D144">
-        <v>0.773444595130462</v>
+        <v>0.6413957190540831</v>
       </c>
       <c r="E144">
-        <v>0.9566288413455716</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F144">
-        <v>-6.029411522878341</v>
+        <v>-6.669919100557964</v>
       </c>
       <c r="G144">
-        <v>0.9838898973076562</v>
+        <v>0.9192497703951052</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="I144">
-        <v>0.9566288413455716</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J144">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K144">
-        <v>0.1115707910672886</v>
+        <v>0.1928739430626977</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -6677,39 +6462,39 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.0634436477002609</v>
+        <v>-0.1978447340631142</v>
       </c>
       <c r="B145">
-        <v>14.55988303967214</v>
+        <v>22.51413798630626</v>
       </c>
       <c r="C145">
-        <v>-0.4730529077959207</v>
+        <v>-0.6550845185783408</v>
       </c>
       <c r="D145">
-        <v>0.6442897793929093</v>
+        <v>0.5152571176915075</v>
       </c>
       <c r="E145">
-        <v>0.9119801559331313</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F145">
-        <v>-5.960074258389692</v>
+        <v>-6.565088725538469</v>
       </c>
       <c r="G145">
-        <v>0.9724950906097815</v>
+        <v>0.8770522455185776</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="I145">
-        <v>0.9119801559331314</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J145">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K145">
-        <v>0.1909187579730202</v>
+        <v>0.2879760002226069</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -6719,39 +6504,39 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.06799501573527955</v>
+        <v>-0.2010437305446242</v>
       </c>
       <c r="B146">
-        <v>14.65722943600296</v>
+        <v>15.34503303129841</v>
       </c>
       <c r="C146">
-        <v>-0.1603383437620999</v>
+        <v>-1.464847155677293</v>
       </c>
       <c r="D146">
-        <v>0.875164198640823</v>
+        <v>0.1488916452113407</v>
       </c>
       <c r="E146">
-        <v>0.9970935950845311</v>
+        <v>0.6594791534787935</v>
       </c>
       <c r="F146">
-        <v>-6.060389207573482</v>
+        <v>-5.722319845860333</v>
       </c>
       <c r="G146">
-        <v>0.9909742679856589</v>
+        <v>0.6818844163096562</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="I146">
-        <v>0.997093595084531</v>
+        <v>0.6594791534787936</v>
       </c>
       <c r="J146">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K146">
-        <v>0.05791045683646454</v>
+        <v>0.8271296712230554</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -6761,39 +6546,39 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0681587575417506</v>
+        <v>-0.2029876700429405</v>
       </c>
       <c r="B147">
-        <v>11.90168994210273</v>
+        <v>14.64161026126735</v>
       </c>
       <c r="C147">
-        <v>-0.5134286339447249</v>
+        <v>-1.520808990962583</v>
       </c>
       <c r="D147">
-        <v>0.6165620171532498</v>
+        <v>0.1342738398303078</v>
       </c>
       <c r="E147">
-        <v>0.9081970063695183</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F147">
-        <v>-5.940099610095479</v>
+        <v>-5.641720967811779</v>
       </c>
       <c r="G147">
-        <v>0.9675759774949632</v>
+        <v>0.6652624452662335</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="I147">
-        <v>0.9081970063695183</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J147">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K147">
-        <v>0.2100232331755892</v>
+        <v>0.8720085913819702</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -6803,39 +6588,39 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.0809673577995742</v>
+        <v>-0.2070591793246557</v>
       </c>
       <c r="B148">
-        <v>12.2978178279206</v>
+        <v>16.61132943632709</v>
       </c>
       <c r="C148">
-        <v>-0.3843805218394892</v>
+        <v>-0.4615744932300381</v>
       </c>
       <c r="D148">
-        <v>0.7071246148898778</v>
+        <v>0.6462824136581661</v>
       </c>
       <c r="E148">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F148">
-        <v>-5.998386082865967</v>
+        <v>-6.673119170569159</v>
       </c>
       <c r="G148">
-        <v>0.9723308946459338</v>
+        <v>0.9135792037188797</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="I148">
-        <v>0.9180948775600829</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J148">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K148">
-        <v>0.1505040447744215</v>
+        <v>0.1895776617396056</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -6845,39 +6630,39 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>-0.08366428175385821</v>
+        <v>-0.2071147140804275</v>
       </c>
       <c r="B149">
-        <v>12.97590710836931</v>
+        <v>11.66511239028224</v>
       </c>
       <c r="C149">
-        <v>-0.5147068795342472</v>
+        <v>-0.496811282030783</v>
       </c>
       <c r="D149">
-        <v>0.6156938368696636</v>
+        <v>0.6213843092624669</v>
       </c>
       <c r="E149">
-        <v>0.9081970063695183</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F149">
-        <v>-5.939441649261366</v>
+        <v>-6.656206447220725</v>
       </c>
       <c r="G149">
-        <v>0.9602346155196485</v>
+        <v>0.9061537123330855</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="I149">
-        <v>0.9081970063695183</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J149">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K149">
-        <v>0.2106351936992326</v>
+        <v>0.2066397174260122</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -6887,39 +6672,39 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.08637838869514169</v>
+        <v>-0.2093608293346279</v>
       </c>
       <c r="B150">
-        <v>11.52081434424847</v>
+        <v>10.81272493102498</v>
       </c>
       <c r="C150">
-        <v>-0.455142175432009</v>
+        <v>-1.341184654033079</v>
       </c>
       <c r="D150">
-        <v>0.6567736339173242</v>
+        <v>0.1856010777055661</v>
       </c>
       <c r="E150">
-        <v>0.9180948775600829</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="F150">
-        <v>-5.968430889148789</v>
+        <v>-5.89050550006609</v>
       </c>
       <c r="G150">
-        <v>0.964336629124334</v>
+        <v>0.7028609344377061</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="I150">
-        <v>0.9180948775600829</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="J150">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K150">
-        <v>0.1825842902279193</v>
+        <v>0.7314195063487213</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -6929,39 +6714,39 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.08985168379099129</v>
+        <v>-0.2109587155750514</v>
       </c>
       <c r="B151">
-        <v>11.99696424633574</v>
+        <v>12.54657629682857</v>
       </c>
       <c r="C151">
-        <v>-0.518534703568771</v>
+        <v>-0.944574703181251</v>
       </c>
       <c r="D151">
-        <v>0.6130976060600954</v>
+        <v>0.3491782747761859</v>
       </c>
       <c r="E151">
-        <v>0.9081970063695183</v>
+        <v>0.9509380499118817</v>
       </c>
       <c r="F151">
-        <v>-5.937461967913876</v>
+        <v>-6.335059520580171</v>
       </c>
       <c r="G151">
-        <v>0.9569939200426033</v>
+        <v>0.8009434006397286</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="I151">
-        <v>0.9081970063695183</v>
+        <v>0.9509380499118816</v>
       </c>
       <c r="J151">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K151">
-        <v>0.2124703796433094</v>
+        <v>0.4569527851220609</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -6971,39 +6756,39 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.09322903894869761</v>
+        <v>-0.2117777817673847</v>
       </c>
       <c r="B152">
-        <v>11.61908848882142</v>
+        <v>13.36104111372835</v>
       </c>
       <c r="C152">
-        <v>-0.4087286474379881</v>
+        <v>-1.148331676254868</v>
       </c>
       <c r="D152">
-        <v>0.6896211144202504</v>
+        <v>0.2560073391323878</v>
       </c>
       <c r="E152">
-        <v>0.9180948775600829</v>
+        <v>0.8298168923601535</v>
       </c>
       <c r="F152">
-        <v>-5.988632605474699</v>
+        <v>-6.125001482391144</v>
       </c>
       <c r="G152">
-        <v>0.9659481536115392</v>
+        <v>0.7493436117256299</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="I152">
-        <v>0.9180948775600829</v>
+        <v>0.8298168923601537</v>
       </c>
       <c r="J152">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K152">
-        <v>0.1613894500026259</v>
+        <v>0.59174758430139</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -7013,39 +6798,39 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.09341362386448537</v>
+        <v>-0.213762939118288</v>
       </c>
       <c r="B153">
-        <v>15.54403643854135</v>
+        <v>11.99290263776422</v>
       </c>
       <c r="C153">
-        <v>-0.6859821426899599</v>
+        <v>-1.768178697536728</v>
       </c>
       <c r="D153">
-        <v>0.5051889766864954</v>
+        <v>0.08280788968625057</v>
       </c>
       <c r="E153">
-        <v>0.8703765606757353</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="F153">
-        <v>-5.837348975333406</v>
+        <v>-5.252756281931117</v>
       </c>
       <c r="G153">
-        <v>0.9382067451520505</v>
+        <v>0.5871158843424649</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="I153">
-        <v>0.8703765606757353</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="J153">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K153">
-        <v>0.296546134396314</v>
+        <v>1.081928282973977</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -7055,39 +6840,39 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>-0.1015201814331039</v>
+        <v>-0.2334644055875028</v>
       </c>
       <c r="B154">
-        <v>13.56908022080605</v>
+        <v>11.05982918267551</v>
       </c>
       <c r="C154">
-        <v>-0.7858898526797632</v>
+        <v>-0.6842412444029426</v>
       </c>
       <c r="D154">
-        <v>0.4465036887996864</v>
+        <v>0.4968150339086113</v>
       </c>
       <c r="E154">
-        <v>0.8653885927251653</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F154">
-        <v>-5.765381927242591</v>
+        <v>-6.545613090711808</v>
       </c>
       <c r="G154">
-        <v>0.9214041747810793</v>
+        <v>0.8493218226451186</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="I154">
-        <v>0.8653885927251654</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J154">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K154">
-        <v>0.3501749488275489</v>
+        <v>0.3038052706318738</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -7097,39 +6882,39 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>-0.1034422551055343</v>
+        <v>-0.235225261031605</v>
       </c>
       <c r="B155">
-        <v>14.41506347503661</v>
+        <v>14.57899907967037</v>
       </c>
       <c r="C155">
-        <v>-0.284059143113617</v>
+        <v>-2.234345584346572</v>
       </c>
       <c r="D155">
-        <v>0.7809932307774614</v>
+        <v>0.02971709706233241</v>
       </c>
       <c r="E155">
-        <v>0.959651812981456</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="F155">
-        <v>-6.032377737503218</v>
+        <v>-4.381964143585254</v>
       </c>
       <c r="G155">
-        <v>0.9747543713410989</v>
+        <v>0.4373332804386665</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="I155">
-        <v>0.959651812981456</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="J155">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K155">
-        <v>0.1073527303336289</v>
+        <v>1.526993617232661</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -7139,39 +6924,39 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-0.1036051061321928</v>
+        <v>-0.2474977532387292</v>
       </c>
       <c r="B156">
-        <v>18.71353514771699</v>
+        <v>18.75457971315561</v>
       </c>
       <c r="C156">
-        <v>-0.7960921223565219</v>
+        <v>-1.850568011269069</v>
       </c>
       <c r="D156">
-        <v>0.4407643677989507</v>
+        <v>0.0698294497429167</v>
       </c>
       <c r="E156">
-        <v>0.8653885927251653</v>
+        <v>0.4862198722840126</v>
       </c>
       <c r="F156">
-        <v>-5.757534697086646</v>
+        <v>-5.111652215128298</v>
       </c>
       <c r="G156">
-        <v>0.9186243950804214</v>
+        <v>0.5174902307914678</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="I156">
-        <v>0.8653885927251654</v>
+        <v>0.4862198722840126</v>
       </c>
       <c r="J156">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K156">
-        <v>0.3557935219007934</v>
+        <v>1.155961380192357</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -7181,39 +6966,39 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>-0.1038146427513453</v>
+        <v>-0.2503547493204152</v>
       </c>
       <c r="B157">
-        <v>16.71251030485208</v>
+        <v>21.08668454845564</v>
       </c>
       <c r="C157">
-        <v>-0.22678506830228</v>
+        <v>-0.754216087906689</v>
       </c>
       <c r="D157">
-        <v>0.8242396603948631</v>
+        <v>0.4540699091558723</v>
       </c>
       <c r="E157">
-        <v>0.9745726802153097</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F157">
-        <v>-6.047267986278945</v>
+        <v>-6.495479466307245</v>
       </c>
       <c r="G157">
-        <v>0.9801332555903772</v>
+        <v>0.8206520243744119</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>Palmitate</t>
         </is>
       </c>
       <c r="I157">
-        <v>0.9745726802153099</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J157">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K157">
-        <v>0.08394649212126172</v>
+        <v>0.3428772774880739</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -7223,39 +7008,39 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>-0.111525357014953</v>
+        <v>-0.2579055180170347</v>
       </c>
       <c r="B158">
-        <v>12.83528623636447</v>
+        <v>11.29085469089077</v>
       </c>
       <c r="C158">
-        <v>-0.4311352659449564</v>
+        <v>-0.9247304775193541</v>
       </c>
       <c r="D158">
-        <v>0.6736762338063944</v>
+        <v>0.3593130004481379</v>
       </c>
       <c r="E158">
-        <v>0.9180948775600829</v>
+        <v>0.9509380499118817</v>
       </c>
       <c r="F158">
-        <v>-5.979142708645278</v>
+        <v>-6.353411562686639</v>
       </c>
       <c r="G158">
-        <v>0.9569031005491879</v>
+        <v>0.7679872605381982</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="I158">
-        <v>0.9180948775600829</v>
+        <v>0.9509380499118816</v>
       </c>
       <c r="J158">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K158">
-        <v>0.1715487735747373</v>
+        <v>0.4445270691278114</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -7265,39 +7050,39 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-0.1151938486078929</v>
+        <v>-0.2611729150979869</v>
       </c>
       <c r="B159">
-        <v>14.99906638915414</v>
+        <v>16.28599670650388</v>
       </c>
       <c r="C159">
-        <v>-0.4896366291426704</v>
+        <v>-0.7911713872752855</v>
       </c>
       <c r="D159">
-        <v>0.6328303708972585</v>
+        <v>0.4323834641588635</v>
       </c>
       <c r="E159">
-        <v>0.9119801559331313</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F159">
-        <v>-5.952059986500514</v>
+        <v>-6.467077134682266</v>
       </c>
       <c r="G159">
-        <v>0.9486576667598325</v>
+        <v>0.80333902579508</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="I159">
-        <v>0.9119801559331314</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J159">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K159">
-        <v>0.1987126862793771</v>
+        <v>0.3641309233262174</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -7307,39 +7092,39 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.1237680675451429</v>
+        <v>-0.2616789325346769</v>
       </c>
       <c r="B160">
-        <v>16.28984645890291</v>
+        <v>15.78850682398019</v>
       </c>
       <c r="C160">
-        <v>-0.3683511398926102</v>
+        <v>-1.457725632749731</v>
       </c>
       <c r="D160">
-        <v>0.7187443560811768</v>
+        <v>0.1508383170190858</v>
       </c>
       <c r="E160">
-        <v>0.9211795691981483</v>
+        <v>0.6594791534787935</v>
       </c>
       <c r="F160">
-        <v>-6.004488221600609</v>
+        <v>-5.732377273957707</v>
       </c>
       <c r="G160">
-        <v>0.959949742658438</v>
+        <v>0.6095843557645658</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="I160">
-        <v>0.9211795691981483</v>
+        <v>0.6594791534787936</v>
       </c>
       <c r="J160">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K160">
-        <v>0.1434255525735129</v>
+        <v>0.8214883218869541</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -7349,39 +7134,39 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.128390818111324</v>
+        <v>-0.2734315358673189</v>
       </c>
       <c r="B161">
-        <v>17.56108802495723</v>
+        <v>12.94318757816795</v>
       </c>
       <c r="C161">
-        <v>-0.7940079406827901</v>
+        <v>-1.251879187024008</v>
       </c>
       <c r="D161">
-        <v>0.441932958675367</v>
+        <v>0.2161310282208508</v>
       </c>
       <c r="E161">
-        <v>0.8653885927251653</v>
+        <v>0.7967183001082344</v>
       </c>
       <c r="F161">
-        <v>-5.759145177303094</v>
+        <v>-6.00334952827918</v>
       </c>
       <c r="G161">
-        <v>0.9004653732681838</v>
+        <v>0.6577951699411881</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="I161">
-        <v>0.8653885927251654</v>
+        <v>0.7967183001082345</v>
       </c>
       <c r="J161">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K161">
-        <v>0.3546436082202818</v>
+        <v>0.6652828804199733</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -7391,39 +7176,39 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.1315761917911651</v>
+        <v>-0.2973555764716096</v>
       </c>
       <c r="B162">
-        <v>16.60015086366584</v>
+        <v>12.0734139996785</v>
       </c>
       <c r="C162">
-        <v>-0.438233722146311</v>
+        <v>-0.9938669337895737</v>
       </c>
       <c r="D162">
-        <v>0.6686585605796923</v>
+        <v>0.3248203788096685</v>
       </c>
       <c r="E162">
-        <v>0.9180948775600829</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="F162">
-        <v>-5.97603388567469</v>
+        <v>-6.287846894567036</v>
       </c>
       <c r="G162">
-        <v>0.9484207820894591</v>
+        <v>0.7157879823635803</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="I162">
-        <v>0.9180948775600829</v>
+        <v>0.9305836807738506</v>
       </c>
       <c r="J162">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K162">
-        <v>0.1747955909158937</v>
+        <v>0.488356731503062</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -7433,39 +7218,39 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>-0.1338862958516298</v>
+        <v>-0.2986560378327141</v>
       </c>
       <c r="B163">
-        <v>12.35920594925427</v>
+        <v>15.43623967511472</v>
       </c>
       <c r="C163">
-        <v>-0.5663177329585489</v>
+        <v>-2.262308437455917</v>
       </c>
       <c r="D163">
-        <v>0.5811550085132159</v>
+        <v>0.02781863427095755</v>
       </c>
       <c r="E163">
-        <v>0.9081970063695183</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="F163">
-        <v>-5.911574298043101</v>
+        <v>-4.324310384343509</v>
       </c>
       <c r="G163">
-        <v>0.9299121603556558</v>
+        <v>0.3430769143012041</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="I163">
-        <v>0.9081970063695183</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="J163">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K163">
-        <v>0.2357080150050791</v>
+        <v>1.555664195089703</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -7475,39 +7260,39 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>-0.1383345620727763</v>
+        <v>-0.3047811839177239</v>
       </c>
       <c r="B164">
-        <v>15.01956092369228</v>
+        <v>12.80133617669628</v>
       </c>
       <c r="C164">
-        <v>-0.5108034859936004</v>
+        <v>-2.645532489531174</v>
       </c>
       <c r="D164">
-        <v>0.6183468979537146</v>
+        <v>0.01072078476176039</v>
       </c>
       <c r="E164">
-        <v>0.9081970063695183</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="F164">
-        <v>-5.941445963048031</v>
+        <v>-3.47675741457822</v>
       </c>
       <c r="G164">
-        <v>0.9356645941249018</v>
+        <v>0.2509863622648514</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="I164">
-        <v>0.9081970063695183</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="J164">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K164">
-        <v>0.2087678135850431</v>
+        <v>1.969773423110794</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -7517,39 +7302,39 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>-0.1500510778061965</v>
+        <v>-0.3145644090865112</v>
       </c>
       <c r="B165">
-        <v>12.86021105649732</v>
+        <v>12.25862662522448</v>
       </c>
       <c r="C165">
-        <v>-0.6717751115976448</v>
+        <v>-1.426225946704444</v>
       </c>
       <c r="D165">
-        <v>0.5138925438032267</v>
+        <v>0.1596889276666926</v>
       </c>
       <c r="E165">
-        <v>0.8703765606757353</v>
+        <v>0.68230723639405</v>
       </c>
       <c r="F165">
-        <v>-5.846852822109651</v>
+        <v>-5.776320340799018</v>
       </c>
       <c r="G165">
-        <v>0.9049322782779238</v>
+        <v>0.5615373002751771</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Caffeate_iso1</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="I165">
-        <v>0.8703765606757353</v>
+        <v>0.68230723639405</v>
       </c>
       <c r="J165">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K165">
-        <v>0.2891276835574936</v>
+        <v>0.7967251954454988</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -7559,39 +7344,39 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-0.1539895432116332</v>
+        <v>-0.3173906827020598</v>
       </c>
       <c r="B166">
-        <v>13.55851979263515</v>
+        <v>13.53466811040654</v>
       </c>
       <c r="C166">
-        <v>-0.7315638343074535</v>
+        <v>-1.898787585234875</v>
       </c>
       <c r="D166">
-        <v>0.4778611874492283</v>
+        <v>0.06306251530693105</v>
       </c>
       <c r="E166">
-        <v>0.8703765606757353</v>
+        <v>0.4742301151081215</v>
       </c>
       <c r="F166">
-        <v>-5.805621878971092</v>
+        <v>-5.026457171724758</v>
       </c>
       <c r="G166">
-        <v>0.8925156173667649</v>
+        <v>0.4159667241543136</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="I166">
-        <v>0.8703765606757353</v>
+        <v>0.4742301151081215</v>
       </c>
       <c r="J166">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K166">
-        <v>0.3206982420490893</v>
+        <v>1.200228711004308</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -7601,39 +7386,39 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>-0.1583858135186382</v>
+        <v>-0.325587005142431</v>
       </c>
       <c r="B167">
-        <v>12.73828692394952</v>
+        <v>20.16375204476647</v>
       </c>
       <c r="C167">
-        <v>-0.5325505010440484</v>
+        <v>-2.231635718415411</v>
       </c>
       <c r="D167">
-        <v>0.6036379967524679</v>
+        <v>0.02990703167575465</v>
       </c>
       <c r="E167">
-        <v>0.9081970063695183</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="F167">
-        <v>-5.930093719456464</v>
+        <v>-4.38751993595185</v>
       </c>
       <c r="G167">
-        <v>0.9231624234219215</v>
+        <v>0.3189566028397185</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="I167">
-        <v>0.9081970063695183</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="J167">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K167">
-        <v>0.2192234308239602</v>
+        <v>1.524226689302756</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -7643,39 +7428,39 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>-0.158726801165372</v>
+        <v>-0.3373839992484839</v>
       </c>
       <c r="B168">
-        <v>13.45614146897279</v>
+        <v>16.2206538190798</v>
       </c>
       <c r="C168">
-        <v>-0.7583388381012954</v>
+        <v>-1.364255818966862</v>
       </c>
       <c r="D168">
-        <v>0.4622396793936453</v>
+        <v>0.1782737318741842</v>
       </c>
       <c r="E168">
-        <v>0.8703765606757353</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="F168">
-        <v>-5.786116143728412</v>
+        <v>-5.860172955145816</v>
       </c>
       <c r="G168">
-        <v>0.8847191878563204</v>
+        <v>0.5588932404030168</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="I168">
-        <v>0.8703765606757353</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="J168">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K168">
-        <v>0.3351327767235261</v>
+        <v>0.7489126441635466</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -7685,39 +7470,39 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>-0.1699761438141714</v>
+        <v>-0.3687273766928829</v>
       </c>
       <c r="B169">
-        <v>14.58751094396904</v>
+        <v>13.63580780464432</v>
       </c>
       <c r="C169">
-        <v>-1.067071305888545</v>
+        <v>-2.442558096488711</v>
       </c>
       <c r="D169">
-        <v>0.3060189760817595</v>
+        <v>0.01796385301006828</v>
       </c>
       <c r="E169">
-        <v>0.6927212376929429</v>
+        <v>0.2597849512225259</v>
       </c>
       <c r="F169">
-        <v>-5.517045007643432</v>
+        <v>-3.938746787911725</v>
       </c>
       <c r="G169">
-        <v>0.817691510653529</v>
+        <v>0.2271691244660162</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>Succinate_iso2</t>
         </is>
       </c>
       <c r="I169">
-        <v>0.6927212376929428</v>
+        <v>0.2597849512225259</v>
       </c>
       <c r="J169">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K169">
-        <v>0.5142516423024903</v>
+        <v>1.745600507226413</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -7727,39 +7512,39 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>-0.1958268988941629</v>
+        <v>-0.3716290025676017</v>
       </c>
       <c r="B170">
-        <v>13.28805070230973</v>
+        <v>16.28079105474839</v>
       </c>
       <c r="C170">
-        <v>-1.087456630416812</v>
+        <v>-2.399470037568151</v>
       </c>
       <c r="D170">
-        <v>0.2972608974782717</v>
+        <v>0.01998021979934253</v>
       </c>
       <c r="E170">
-        <v>0.6927212376929429</v>
+        <v>0.2683058087340282</v>
       </c>
       <c r="F170">
-        <v>-5.496568206235367</v>
+        <v>-4.033075682525292</v>
       </c>
       <c r="G170">
-        <v>0.7885444987135645</v>
+        <v>0.233589743740241</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="I170">
-        <v>0.6927212376929428</v>
+        <v>0.2683058087340282</v>
       </c>
       <c r="J170">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K170">
-        <v>0.526862215336927</v>
+        <v>1.699399738476577</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -7769,39 +7554,39 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>-0.2002843743488558</v>
+        <v>-0.3725704467941391</v>
       </c>
       <c r="B171">
-        <v>12.08088705412884</v>
+        <v>14.74901005460741</v>
       </c>
       <c r="C171">
-        <v>-0.8729627818460657</v>
+        <v>-1.375232354264191</v>
       </c>
       <c r="D171">
-        <v>0.3990636511983746</v>
+        <v>0.1748662845763471</v>
       </c>
       <c r="E171">
-        <v>0.8067093164010153</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="F171">
-        <v>-5.695511888647549</v>
+        <v>-5.845572588652973</v>
       </c>
       <c r="G171">
-        <v>0.8319456992252922</v>
+        <v>0.5222214025500083</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Adipate_iso1</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="I171">
-        <v>0.8067093164010154</v>
+        <v>0.7132463424531096</v>
       </c>
       <c r="J171">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K171">
-        <v>0.3989578282242137</v>
+        <v>0.7572939174163303</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -7811,39 +7596,39 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>-0.2167814734102507</v>
+        <v>-0.3739800631305457</v>
       </c>
       <c r="B172">
-        <v>18.78770576970639</v>
+        <v>17.81604316729429</v>
       </c>
       <c r="C172">
-        <v>-0.3830239400829586</v>
+        <v>-1.54982294327881</v>
       </c>
       <c r="D172">
-        <v>0.7081050917351703</v>
+        <v>0.1271573566073283</v>
       </c>
       <c r="E172">
-        <v>0.9180948775600829</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F172">
-        <v>-5.998912338863437</v>
+        <v>-5.598845514754896</v>
       </c>
       <c r="G172">
-        <v>0.9279059558253062</v>
+        <v>0.4624252864814429</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso2</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="I172">
-        <v>0.9180948775600829</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J172">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K172">
-        <v>0.1499022827428892</v>
+        <v>0.8956585089326607</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -7853,39 +7638,39 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>-0.2421054589452556</v>
+        <v>-0.3919822423917285</v>
       </c>
       <c r="B173">
-        <v>11.21197859462014</v>
+        <v>12.57787679641607</v>
       </c>
       <c r="C173">
-        <v>-1.374522146985445</v>
+        <v>-2.33655800390051</v>
       </c>
       <c r="D173">
-        <v>0.1933050617592325</v>
+        <v>0.02328963465428578</v>
       </c>
       <c r="E173">
-        <v>0.5881659007326228</v>
+        <v>0.2743104014997465</v>
       </c>
       <c r="F173">
-        <v>-5.176263325994688</v>
+        <v>-4.168380878118175</v>
       </c>
       <c r="G173">
-        <v>0.6717313055270503</v>
+        <v>0.2290639598803464</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>Caffeate_iso1</t>
         </is>
       </c>
       <c r="I173">
-        <v>0.5881659007326228</v>
+        <v>0.2743104014997465</v>
       </c>
       <c r="J173">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K173">
-        <v>0.7137567736728354</v>
+        <v>1.632837324212085</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -7895,39 +7680,39 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>-0.2637502200887081</v>
+        <v>-0.421726806422928</v>
       </c>
       <c r="B174">
-        <v>15.76887263979479</v>
+        <v>17.06071395456294</v>
       </c>
       <c r="C174">
-        <v>-0.7548153231336223</v>
+        <v>-2.282248438441513</v>
       </c>
       <c r="D174">
-        <v>0.4642769908494071</v>
+        <v>0.02653133973613403</v>
       </c>
       <c r="E174">
-        <v>0.8703765606757353</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="F174">
-        <v>-5.788719484831526</v>
+        <v>-4.282838781272901</v>
       </c>
       <c r="G174">
-        <v>0.8167937442390993</v>
+        <v>0.2163998688241697</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="I174">
-        <v>0.8703765606757353</v>
+        <v>0.2811260977520937</v>
       </c>
       <c r="J174">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K174">
-        <v>0.3332228390448909</v>
+        <v>1.576240819172606</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -7937,39 +7722,39 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-0.2750655733337979</v>
+        <v>-0.4234408952918578</v>
       </c>
       <c r="B175">
-        <v>11.69769678458839</v>
+        <v>19.45488725571301</v>
       </c>
       <c r="C175">
-        <v>-1.279921019836859</v>
+        <v>-2.596311637776534</v>
       </c>
       <c r="D175">
-        <v>0.2237059860013387</v>
+        <v>0.01217761460436804</v>
       </c>
       <c r="E175">
-        <v>0.6184812554154658</v>
+        <v>0.1907826288017659</v>
       </c>
       <c r="F175">
-        <v>-5.28813351530661</v>
+        <v>-3.591411624152044</v>
       </c>
       <c r="G175">
-        <v>0.6623975197635081</v>
+        <v>0.1546495835191609</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="I175">
-        <v>0.6184812554154658</v>
+        <v>0.1907826288017659</v>
       </c>
       <c r="J175">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K175">
-        <v>0.6503223947475004</v>
+        <v>1.914437774561741</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -7979,39 +7764,39 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>-0.2840288234422097</v>
+        <v>-0.4306046965382393</v>
       </c>
       <c r="B176">
-        <v>16.92202196975213</v>
+        <v>19.62216451374549</v>
       </c>
       <c r="C176">
-        <v>-0.5587278485252898</v>
+        <v>-1.48979519406988</v>
       </c>
       <c r="D176">
-        <v>0.5861700769176346</v>
+        <v>0.1422273782208526</v>
       </c>
       <c r="E176">
-        <v>0.9081970063695183</v>
+        <v>0.6521645635492753</v>
       </c>
       <c r="F176">
-        <v>-5.915831102691033</v>
+        <v>-5.68673117758089</v>
       </c>
       <c r="G176">
-        <v>0.8592351374680796</v>
+        <v>0.4317880211598062</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="I176">
-        <v>0.9081970063695183</v>
+        <v>0.6521645635492753</v>
       </c>
       <c r="J176">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K176">
-        <v>0.2319763553981728</v>
+        <v>0.8470167955488868</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -8021,39 +7806,39 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>-0.2877904151789039</v>
+        <v>-0.450320830901898</v>
       </c>
       <c r="B177">
-        <v>14.44888367923346</v>
+        <v>15.67597315149738</v>
       </c>
       <c r="C177">
-        <v>-0.6117323770183183</v>
+        <v>-1.80969502729261</v>
       </c>
       <c r="D177">
-        <v>0.551626267160317</v>
+        <v>0.07603613723219693</v>
       </c>
       <c r="E177">
-        <v>0.8800686064122212</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="F177">
-        <v>-5.884970831228591</v>
+        <v>-5.182361396979856</v>
       </c>
       <c r="G177">
-        <v>0.8426512890190256</v>
+        <v>0.3134007397782573</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="I177">
-        <v>0.8800686064122213</v>
+        <v>0.4892061410133167</v>
       </c>
       <c r="J177">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K177">
-        <v>0.258355061910305</v>
+        <v>1.11897995416</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -8063,39 +7848,39 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.3040887726142838</v>
+        <v>-0.4516646920892775</v>
       </c>
       <c r="B178">
-        <v>14.0290826766219</v>
+        <v>18.45947859442867</v>
       </c>
       <c r="C178">
-        <v>-1.001442267077583</v>
+        <v>-1.547612194721224</v>
       </c>
       <c r="D178">
-        <v>0.3355144534447353</v>
+        <v>0.1276887628190519</v>
       </c>
       <c r="E178">
-        <v>0.7087271600855082</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="F178">
-        <v>-5.580777886989384</v>
+        <v>-5.602138483638768</v>
       </c>
       <c r="G178">
-        <v>0.7174210432643717</v>
+        <v>0.3947123590428006</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="I178">
-        <v>0.7087271600855083</v>
+        <v>0.6310870472024467</v>
       </c>
       <c r="J178">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K178">
-        <v>0.474288766356127</v>
+        <v>0.8938473209074016</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -8105,39 +7890,39 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.3273055050373372</v>
+        <v>-0.4721814861928486</v>
       </c>
       <c r="B179">
-        <v>16.22982872388037</v>
+        <v>12.72987047979261</v>
       </c>
       <c r="C179">
-        <v>-0.6838997319532178</v>
+        <v>-0.7545418038233781</v>
       </c>
       <c r="D179">
-        <v>0.5064592375983183</v>
+        <v>0.453876052555319</v>
       </c>
       <c r="E179">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="F179">
-        <v>-5.838753517087312</v>
+        <v>-6.495234936607997</v>
       </c>
       <c r="G179">
-        <v>0.8003791880819722</v>
+        <v>0.6886715306807528</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="I179">
-        <v>0.8703765606757353</v>
+        <v>0.9905815383689338</v>
       </c>
       <c r="J179">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K179">
-        <v>0.2954555031141831</v>
+        <v>0.3430627309329495</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -8147,39 +7932,49 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>-0.3301028568258957</v>
+        <v>-0.5032125239165328</v>
       </c>
       <c r="B180">
-        <v>16.99040826870741</v>
+        <v>14.92345877808362</v>
       </c>
       <c r="C180">
-        <v>-0.6235424067609842</v>
+        <v>-3.963044555402965</v>
       </c>
       <c r="D180">
-        <v>0.5440848056335925</v>
+        <v>0.0002234544311759584</v>
       </c>
       <c r="E180">
-        <v>0.8800686064122212</v>
+        <v>0.008401886612216037</v>
       </c>
       <c r="F180">
-        <v>-5.877736680176392</v>
+        <v>0.1238531302730701</v>
       </c>
       <c r="G180">
-        <v>0.8179801952650465</v>
+        <v>0.0145501063570052</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="I180">
-        <v>0.8800686064122213</v>
+        <v>0.008401886612216036</v>
       </c>
       <c r="J180">
-        <v>0.9999915334586322</v>
+        <v>0.4495405299201103</v>
       </c>
       <c r="K180">
-        <v>0.2643334022352954</v>
+        <v>3.650811028713687</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -8189,39 +7984,49 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>-0.3577947357501294</v>
+        <v>-0.5251229043400301</v>
       </c>
       <c r="B181">
-        <v>19.42218073159549</v>
+        <v>12.41873837829175</v>
       </c>
       <c r="C181">
-        <v>-0.640909638520564</v>
+        <v>-4.451734065385295</v>
       </c>
       <c r="D181">
-        <v>0.5331001138110987</v>
+        <v>4.440351574734936e-05</v>
       </c>
       <c r="E181">
-        <v>0.8789119611236964</v>
+        <v>0.002782620320167226</v>
       </c>
       <c r="F181">
-        <v>-5.866863402216464</v>
+        <v>1.665610149024728</v>
       </c>
       <c r="G181">
-        <v>0.798460833797085</v>
+        <v>0.005180350698096463</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="I181">
-        <v>0.8789119611236964</v>
+        <v>0.002782620320167227</v>
       </c>
       <c r="J181">
-        <v>0.9999915334586322</v>
+        <v>0.2595459177947371</v>
       </c>
       <c r="K181">
-        <v>0.2731912247578594</v>
+        <v>4.352582642290215</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -8231,39 +8036,39 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.3812452495026779</v>
+        <v>-0.5490998963128177</v>
       </c>
       <c r="B182">
-        <v>15.02221169745387</v>
+        <v>19.0021143419825</v>
       </c>
       <c r="C182">
-        <v>-0.7062798282874638</v>
+        <v>-2.697902143578602</v>
       </c>
       <c r="D182">
-        <v>0.4929066871074022</v>
+        <v>0.009347190409800784</v>
       </c>
       <c r="E182">
-        <v>0.8703765606757353</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="F182">
-        <v>-5.823452433443096</v>
+        <v>-3.352970028368902</v>
       </c>
       <c r="G182">
-        <v>0.7636036669098782</v>
+        <v>0.07686014452724847</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="I182">
-        <v>0.8703765606757353</v>
+        <v>0.1832279577464503</v>
       </c>
       <c r="J182">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K182">
-        <v>0.3072352898709513</v>
+        <v>2.029318910291611</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
@@ -8273,39 +8078,39 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.3835592695704921</v>
+        <v>-0.5577580554381054</v>
       </c>
       <c r="B183">
-        <v>14.94619113660533</v>
+        <v>11.42265508840423</v>
       </c>
       <c r="C183">
-        <v>-0.6718084464153836</v>
+        <v>-1.204166138413998</v>
       </c>
       <c r="D183">
-        <v>0.5138720199394018</v>
+        <v>0.233895455719707</v>
       </c>
       <c r="E183">
-        <v>0.8703765606757353</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="F183">
-        <v>-5.84683073825247</v>
+        <v>-6.060638452804807</v>
       </c>
       <c r="G183">
-        <v>0.7746325534038726</v>
+        <v>0.4446996803600106</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="I183">
-        <v>0.8703765606757353</v>
+        <v>0.8143026976908319</v>
       </c>
       <c r="J183">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K183">
-        <v>0.2891450287766656</v>
+        <v>0.6309782158780087</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
@@ -8315,39 +8120,49 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.3953349796089753</v>
+        <v>-0.5886192799336918</v>
       </c>
       <c r="B184">
-        <v>16.97584888161466</v>
+        <v>17.48433209317605</v>
       </c>
       <c r="C184">
-        <v>-1.128310905487314</v>
+        <v>-4.583829700164201</v>
       </c>
       <c r="D184">
-        <v>0.2802779298911542</v>
+        <v>2.833552045197067e-05</v>
       </c>
       <c r="E184">
-        <v>0.6927212376929429</v>
+        <v>0.002663538922485243</v>
       </c>
       <c r="F184">
-        <v>-5.454581406700797</v>
+        <v>2.096499881736971</v>
       </c>
       <c r="G184">
-        <v>0.6048010960017699</v>
+        <v>0.002104526806687012</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="I184">
-        <v>0.6927212376929428</v>
+        <v>0.002663538922485243</v>
       </c>
       <c r="J184">
-        <v>0.9999915334586322</v>
+        <v>0.1978255198285791</v>
       </c>
       <c r="K184">
-        <v>0.5524110988285577</v>
+        <v>4.547668806056078</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -8357,39 +8172,49 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.426020670552326</v>
+        <v>-0.5892417385092763</v>
       </c>
       <c r="B185">
-        <v>13.89496276518804</v>
+        <v>19.48568783813332</v>
       </c>
       <c r="C185">
-        <v>-0.8772786179824443</v>
+        <v>-4.09140992184984</v>
       </c>
       <c r="D185">
-        <v>0.396803732056092</v>
+        <v>0.0001472834348340789</v>
       </c>
       <c r="E185">
-        <v>0.8067093164010153</v>
+        <v>0.006922321437201708</v>
       </c>
       <c r="F185">
-        <v>-5.691879949013269</v>
+        <v>0.5201717265550592</v>
       </c>
       <c r="G185">
-        <v>0.6745046857791166</v>
+        <v>0.005522253570100789</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="I185">
-        <v>0.8067093164010154</v>
+        <v>0.006922321437201708</v>
       </c>
       <c r="J185">
-        <v>0.9999915334586322</v>
+        <v>0.2595459177947371</v>
       </c>
       <c r="K185">
-        <v>0.4014242518310022</v>
+        <v>3.831846096094943</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -8399,39 +8224,39 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>-0.4576874826205231</v>
+        <v>-0.5893281594650261</v>
       </c>
       <c r="B186">
-        <v>10.85174026734268</v>
+        <v>18.49937470533897</v>
       </c>
       <c r="C186">
-        <v>-0.51402639081827</v>
+        <v>-1.747661197164962</v>
       </c>
       <c r="D186">
-        <v>0.6161559475277069</v>
+        <v>0.08633589495142613</v>
       </c>
       <c r="E186">
-        <v>0.9081970063695183</v>
+        <v>0.4918529772990337</v>
       </c>
       <c r="F186">
-        <v>-5.939792117077975</v>
+        <v>-5.287010845279415</v>
       </c>
       <c r="G186">
-        <v>0.8012057191477683</v>
+        <v>0.2360845860434005</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>Docosapentaenoic Acid</t>
         </is>
       </c>
       <c r="I186">
-        <v>0.9081970063695183</v>
+        <v>0.4918529772990337</v>
       </c>
       <c r="J186">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K186">
-        <v>0.2103093550770677</v>
+        <v>1.063808604768547</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
@@ -8441,39 +8266,49 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.487393480889704</v>
+        <v>-0.610969937495506</v>
       </c>
       <c r="B187">
-        <v>15.07683238012359</v>
+        <v>13.82558423391643</v>
       </c>
       <c r="C187">
-        <v>-1.288236658048953</v>
+        <v>-3.41379847343875</v>
       </c>
       <c r="D187">
-        <v>0.2208875936522475</v>
+        <v>0.001237856911089693</v>
       </c>
       <c r="E187">
-        <v>0.6184812554154658</v>
+        <v>0.03878618321414373</v>
       </c>
       <c r="F187">
-        <v>-5.278538360975153</v>
+        <v>-1.49009942207191</v>
       </c>
       <c r="G187">
-        <v>0.4790197047644971</v>
+        <v>0.01673821122042964</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="I187">
-        <v>0.6184812554154658</v>
+        <v>0.03878618321414373</v>
       </c>
       <c r="J187">
-        <v>0.9999915334586322</v>
+        <v>0.4495405299201103</v>
       </c>
       <c r="K187">
-        <v>0.655828675978623</v>
+        <v>2.907329554278497</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -8483,39 +8318,44 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>-0.6961840682064508</v>
+        <v>-0.7936201085067509</v>
       </c>
       <c r="B188">
-        <v>10.13708951655316</v>
+        <v>16.48618072125958</v>
       </c>
       <c r="C188">
-        <v>-1.111879176405276</v>
+        <v>-3.227317902590133</v>
       </c>
       <c r="D188">
-        <v>0.2870177022521095</v>
+        <v>0.002148758345042604</v>
       </c>
       <c r="E188">
-        <v>0.6927212376929429</v>
+        <v>0.05770950983828707</v>
       </c>
       <c r="F188">
-        <v>-5.471619648454117</v>
+        <v>-2.004038011870142</v>
       </c>
       <c r="G188">
-        <v>0.4193770513366983</v>
+        <v>0.007634320966717439</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="I188">
-        <v>0.6927212376929428</v>
+        <v>0.05770950983828706</v>
       </c>
       <c r="J188">
-        <v>0.9999915334586322</v>
+        <v>0.2870504683485757</v>
       </c>
       <c r="K188">
-        <v>0.5420913166690762</v>
+        <v>2.667812423650363</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -8525,39 +8365,39 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>-0.7066056981661077</v>
+        <v>-0.9585302621112035</v>
       </c>
       <c r="B189">
-        <v>9.419771844473393</v>
+        <v>15.73361987761078</v>
       </c>
       <c r="C189">
-        <v>-0.9701169354935162</v>
+        <v>-1.983517848482386</v>
       </c>
       <c r="D189">
-        <v>0.3502977726158656</v>
+        <v>0.05252011971212617</v>
       </c>
       <c r="E189">
-        <v>0.7317331250198081</v>
+        <v>0.411407604411655</v>
       </c>
       <c r="F189">
-        <v>-5.609995584633499</v>
+        <v>-4.87215360016581</v>
       </c>
       <c r="G189">
-        <v>0.4765372496001409</v>
+        <v>0.05934627501872793</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="I189">
-        <v>0.7317331250198081</v>
+        <v>0.411407604411655</v>
       </c>
       <c r="J189">
-        <v>0.9999915334586322</v>
+        <v>0.9999996379455384</v>
       </c>
       <c r="K189">
-        <v>0.4555626241545145</v>
+        <v>1.279674292669067</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
